--- a/Datos del programa/Variables/flete_real.xlsx
+++ b/Datos del programa/Variables/flete_real.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="722">
   <si>
     <t>INSTRUCTIVO</t>
   </si>
@@ -974,6 +974,1212 @@
   </si>
   <si>
     <t>020-53780786</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>749</t>
+  </si>
+  <si>
+    <t>2088</t>
+  </si>
+  <si>
+    <t>1594</t>
+  </si>
+  <si>
+    <t>6646</t>
+  </si>
+  <si>
+    <t>5534</t>
+  </si>
+  <si>
+    <t>6346</t>
+  </si>
+  <si>
+    <t>2391</t>
+  </si>
+  <si>
+    <t>12103.866000000005</t>
+  </si>
+  <si>
+    <t>7890</t>
+  </si>
+  <si>
+    <t>3522</t>
+  </si>
+  <si>
+    <t>23571.8</t>
+  </si>
+  <si>
+    <t>24015.6</t>
+  </si>
+  <si>
+    <t>4011</t>
+  </si>
+  <si>
+    <t>3970</t>
+  </si>
+  <si>
+    <t>8077</t>
+  </si>
+  <si>
+    <t>4852</t>
+  </si>
+  <si>
+    <t>5443</t>
+  </si>
+  <si>
+    <t>8087</t>
+  </si>
+  <si>
+    <t>4029</t>
+  </si>
+  <si>
+    <t>4047</t>
+  </si>
+  <si>
+    <t>3654</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
+    <t>4031</t>
+  </si>
+  <si>
+    <t>8066</t>
+  </si>
+  <si>
+    <t>3968</t>
+  </si>
+  <si>
+    <t>16176</t>
+  </si>
+  <si>
+    <t>6434</t>
+  </si>
+  <si>
+    <t>5644</t>
+  </si>
+  <si>
+    <t>6408</t>
+  </si>
+  <si>
+    <t>5631</t>
+  </si>
+  <si>
+    <t>8060</t>
+  </si>
+  <si>
+    <t>8064</t>
+  </si>
+  <si>
+    <t>8022</t>
+  </si>
+  <si>
+    <t>6417</t>
+  </si>
+  <si>
+    <t>4032</t>
+  </si>
+  <si>
+    <t>4028</t>
+  </si>
+  <si>
+    <t>4036</t>
+  </si>
+  <si>
+    <t>4004</t>
+  </si>
+  <si>
+    <t>4017</t>
+  </si>
+  <si>
+    <t>4005</t>
+  </si>
+  <si>
+    <t>8013</t>
+  </si>
+  <si>
+    <t>8030</t>
+  </si>
+  <si>
+    <t>4025</t>
+  </si>
+  <si>
+    <t>4019</t>
+  </si>
+  <si>
+    <t>4022</t>
+  </si>
+  <si>
+    <t>4002</t>
+  </si>
+  <si>
+    <t>16164</t>
+  </si>
+  <si>
+    <t>23699.2</t>
+  </si>
+  <si>
+    <t>23888.14</t>
+  </si>
+  <si>
+    <t>4040</t>
+  </si>
+  <si>
+    <t>4030</t>
+  </si>
+  <si>
+    <t>16053</t>
+  </si>
+  <si>
+    <t>16061</t>
+  </si>
+  <si>
+    <t>16013</t>
+  </si>
+  <si>
+    <t>16127</t>
+  </si>
+  <si>
+    <t>4817</t>
+  </si>
+  <si>
+    <t>2397</t>
+  </si>
+  <si>
+    <t>12177</t>
+  </si>
+  <si>
+    <t>26320.93</t>
+  </si>
+  <si>
+    <t>12035</t>
+  </si>
+  <si>
+    <t>4048</t>
+  </si>
+  <si>
+    <t>23696.959999999985</t>
+  </si>
+  <si>
+    <t>23802.528</t>
+  </si>
+  <si>
+    <t>1606</t>
+  </si>
+  <si>
+    <t>14401</t>
+  </si>
+  <si>
+    <t>4012</t>
+  </si>
+  <si>
+    <t>11968</t>
+  </si>
+  <si>
+    <t>16116</t>
+  </si>
+  <si>
+    <t>16161</t>
+  </si>
+  <si>
+    <t>16167</t>
+  </si>
+  <si>
+    <t>13723</t>
+  </si>
+  <si>
+    <t>12067</t>
+  </si>
+  <si>
+    <t>4037</t>
+  </si>
+  <si>
+    <t>23508.67</t>
+  </si>
+  <si>
+    <t>23264.35699999999</t>
+  </si>
+  <si>
+    <t>12168</t>
+  </si>
+  <si>
+    <t>8887</t>
+  </si>
+  <si>
+    <t>1621</t>
+  </si>
+  <si>
+    <t>8073</t>
+  </si>
+  <si>
+    <t>12130</t>
+  </si>
+  <si>
+    <t>4020</t>
+  </si>
+  <si>
+    <t>16182</t>
+  </si>
+  <si>
+    <t>14511</t>
+  </si>
+  <si>
+    <t>4060</t>
+  </si>
+  <si>
+    <t>4070</t>
+  </si>
+  <si>
+    <t>23696.959999999992</t>
+  </si>
+  <si>
+    <t>23974.33599999999</t>
+  </si>
+  <si>
+    <t>24158.399999999994</t>
+  </si>
+  <si>
+    <t>4098</t>
+  </si>
+  <si>
+    <t>4042</t>
+  </si>
+  <si>
+    <t>8096</t>
+  </si>
+  <si>
+    <t>8288</t>
+  </si>
+  <si>
+    <t>24158.399999999998</t>
+  </si>
+  <si>
+    <t>1615</t>
+  </si>
+  <si>
+    <t>12135</t>
+  </si>
+  <si>
+    <t>4033</t>
+  </si>
+  <si>
+    <t>23696.96</t>
+  </si>
+  <si>
+    <t>23612.39999999999</t>
+  </si>
+  <si>
+    <t>4053</t>
+  </si>
+  <si>
+    <t>4045</t>
+  </si>
+  <si>
+    <t>4027</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>803</t>
+  </si>
+  <si>
+    <t>1619</t>
+  </si>
+  <si>
+    <t>2436</t>
+  </si>
+  <si>
+    <t>23748.9</t>
+  </si>
+  <si>
+    <t>24158.4</t>
+  </si>
+  <si>
+    <t>12134</t>
+  </si>
+  <si>
+    <t>8196</t>
+  </si>
+  <si>
+    <t>2431</t>
+  </si>
+  <si>
+    <t>4858</t>
+  </si>
+  <si>
+    <t>8078</t>
+  </si>
+  <si>
+    <t>6469</t>
+  </si>
+  <si>
+    <t>24158.399999999987</t>
+  </si>
+  <si>
+    <t>2427</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>4039</t>
+  </si>
+  <si>
+    <t>4026</t>
+  </si>
+  <si>
+    <t>4828</t>
+  </si>
+  <si>
+    <t>3887</t>
+  </si>
+  <si>
+    <t>23612.399999999987</t>
+  </si>
+  <si>
+    <t>1623</t>
+  </si>
+  <si>
+    <t>1622</t>
+  </si>
+  <si>
+    <t>21241.285999999993</t>
+  </si>
+  <si>
+    <t>804</t>
+  </si>
+  <si>
+    <t>809</t>
+  </si>
+  <si>
+    <t>3752</t>
+  </si>
+  <si>
+    <t>3076.2</t>
+  </si>
+  <si>
+    <t>8610.800000000001</t>
+  </si>
+  <si>
+    <t>6570</t>
+  </si>
+  <si>
+    <t>31900.8</t>
+  </si>
+  <si>
+    <t>26563.199999999997</t>
+  </si>
+  <si>
+    <t>30460.8</t>
+  </si>
+  <si>
+    <t>11476.800000000001</t>
+  </si>
+  <si>
+    <t>8300</t>
+  </si>
+  <si>
+    <t>37871.99999999997</t>
+  </si>
+  <si>
+    <t>16905.599999999995</t>
+  </si>
+  <si>
+    <t>7081</t>
+  </si>
+  <si>
+    <t>17322.3</t>
+  </si>
+  <si>
+    <t>17146</t>
+  </si>
+  <si>
+    <t>38011.9</t>
+  </si>
+  <si>
+    <t>23289.600000000002</t>
+  </si>
+  <si>
+    <t>26126.4</t>
+  </si>
+  <si>
+    <t>40435.00000000001</t>
+  </si>
+  <si>
+    <t>20145</t>
+  </si>
+  <si>
+    <t>20234.999999999996</t>
+  </si>
+  <si>
+    <t>18270.000000000004</t>
+  </si>
+  <si>
+    <t>2487</t>
+  </si>
+  <si>
+    <t>19348.799999999996</t>
+  </si>
+  <si>
+    <t>38716.799999999996</t>
+  </si>
+  <si>
+    <t>19890.000000000004</t>
+  </si>
+  <si>
+    <t>80929.99999999999</t>
+  </si>
+  <si>
+    <t>30883.2</t>
+  </si>
+  <si>
+    <t>27091.199999999993</t>
+  </si>
+  <si>
+    <t>30758.399999999998</t>
+  </si>
+  <si>
+    <t>27028.800000000003</t>
+  </si>
+  <si>
+    <t>39494.000000000015</t>
+  </si>
+  <si>
+    <t>39513.6</t>
+  </si>
+  <si>
+    <t>38505.600000000006</t>
+  </si>
+  <si>
+    <t>30801.599999999995</t>
+  </si>
+  <si>
+    <t>18345</t>
+  </si>
+  <si>
+    <t>18327</t>
+  </si>
+  <si>
+    <t>18363</t>
+  </si>
+  <si>
+    <t>19669.6</t>
+  </si>
+  <si>
+    <t>19733.3</t>
+  </si>
+  <si>
+    <t>21877.25</t>
+  </si>
+  <si>
+    <t>21909.95</t>
+  </si>
+  <si>
+    <t>41717.59999999998</t>
+  </si>
+  <si>
+    <t>38544.00000000001</t>
+  </si>
+  <si>
+    <t>19320</t>
+  </si>
+  <si>
+    <t>21953.55</t>
+  </si>
+  <si>
+    <t>21969.9</t>
+  </si>
+  <si>
+    <t>21860.9</t>
+  </si>
+  <si>
+    <t>18381</t>
+  </si>
+  <si>
+    <t>18416</t>
+  </si>
+  <si>
+    <t>77054.39999999997</t>
+  </si>
+  <si>
+    <t>77092.79999999999</t>
+  </si>
+  <si>
+    <t>76862.40000000002</t>
+  </si>
+  <si>
+    <t>77409.59999999995</t>
+  </si>
+  <si>
+    <t>23121.59999999999</t>
+  </si>
+  <si>
+    <t>11505.600000000002</t>
+  </si>
+  <si>
+    <t>58449.59999999998</t>
+  </si>
+  <si>
+    <t>4500</t>
+  </si>
+  <si>
+    <t>57767.99999999999</t>
+  </si>
+  <si>
+    <t>20938.4</t>
+  </si>
+  <si>
+    <t>8195.3</t>
+  </si>
+  <si>
+    <t>69124.79999999999</t>
+  </si>
+  <si>
+    <t>18876.4</t>
+  </si>
+  <si>
+    <t>57446.399999999965</t>
+  </si>
+  <si>
+    <t>77356.79999999996</t>
+  </si>
+  <si>
+    <t>77572.79999999999</t>
+  </si>
+  <si>
+    <t>77601.6</t>
+  </si>
+  <si>
+    <t>65869.99999999997</t>
+  </si>
+  <si>
+    <t>57921.60000000001</t>
+  </si>
+  <si>
+    <t>19377.600000000002</t>
+  </si>
+  <si>
+    <t>58406.39999999999</t>
+  </si>
+  <si>
+    <t>5227.2</t>
+  </si>
+  <si>
+    <t>58223.999999999985</t>
+  </si>
+  <si>
+    <t>20386</t>
+  </si>
+  <si>
+    <t>81233.63999999998</t>
+  </si>
+  <si>
+    <t>72845.21999999999</t>
+  </si>
+  <si>
+    <t>20349.999999999996</t>
+  </si>
+  <si>
+    <t>20399.999999999996</t>
+  </si>
+  <si>
+    <t>20540</t>
+  </si>
+  <si>
+    <t>19017.4</t>
+  </si>
+  <si>
+    <t>44640</t>
+  </si>
+  <si>
+    <t>5228</t>
+  </si>
+  <si>
+    <t>58247.99999999999</t>
+  </si>
+  <si>
+    <t>19933.7</t>
+  </si>
+  <si>
+    <t>8255</t>
+  </si>
+  <si>
+    <t>20031.700000000004</t>
+  </si>
+  <si>
+    <t>19992.5</t>
+  </si>
+  <si>
+    <t>19904.3</t>
+  </si>
+  <si>
+    <t>11577.6</t>
+  </si>
+  <si>
+    <t>4115</t>
+  </si>
+  <si>
+    <t>8510.8</t>
+  </si>
+  <si>
+    <t>12759.200000000003</t>
+  </si>
+  <si>
+    <t>21000.08</t>
+  </si>
+  <si>
+    <t>8100</t>
+  </si>
+  <si>
+    <t>57756.50000000001</t>
+  </si>
+  <si>
+    <t>39051</t>
+  </si>
+  <si>
+    <t>11667.249999999998</t>
+  </si>
+  <si>
+    <t>23195.500000000004</t>
+  </si>
+  <si>
+    <t>38490.50000000001</t>
+  </si>
+  <si>
+    <t>30848</t>
+  </si>
+  <si>
+    <t>9530.3</t>
+  </si>
+  <si>
+    <t>6351.8</t>
+  </si>
+  <si>
+    <t>15817.1</t>
+  </si>
+  <si>
+    <t>15766.4</t>
+  </si>
+  <si>
+    <t>15821</t>
+  </si>
+  <si>
+    <t>19914.799999999996</t>
+  </si>
+  <si>
+    <t>16056.7</t>
+  </si>
+  <si>
+    <t>6619.1</t>
+  </si>
+  <si>
+    <t>6623</t>
+  </si>
+  <si>
+    <t>3752.5999999999995</t>
+  </si>
+  <si>
+    <t>3326.45</t>
+  </si>
+  <si>
+    <t>16793.36</t>
+  </si>
+  <si>
+    <t>481684</t>
+  </si>
+  <si>
+    <t>388746</t>
+  </si>
+  <si>
+    <t>2729561</t>
+  </si>
+  <si>
+    <t>891028</t>
+  </si>
+  <si>
+    <t>882501</t>
+  </si>
+  <si>
+    <t>2299051</t>
+  </si>
+  <si>
+    <t>1477699</t>
+  </si>
+  <si>
+    <t>1633732</t>
+  </si>
+  <si>
+    <t>388179</t>
+  </si>
+  <si>
+    <t>1249510</t>
+  </si>
+  <si>
+    <t>2353752</t>
+  </si>
+  <si>
+    <t>1906372</t>
+  </si>
+  <si>
+    <t>1686366</t>
+  </si>
+  <si>
+    <t>1908477</t>
+  </si>
+  <si>
+    <t>1690577</t>
+  </si>
+  <si>
+    <t>1910582</t>
+  </si>
+  <si>
+    <t>1948536</t>
+  </si>
+  <si>
+    <t>1945279</t>
+  </si>
+  <si>
+    <t>1950422</t>
+  </si>
+  <si>
+    <t>1310810</t>
+  </si>
+  <si>
+    <t>861638</t>
+  </si>
+  <si>
+    <t>1871604</t>
+  </si>
+  <si>
+    <t>2356911</t>
+  </si>
+  <si>
+    <t>1249511</t>
+  </si>
+  <si>
+    <t>1950934</t>
+  </si>
+  <si>
+    <t>1946221</t>
+  </si>
+  <si>
+    <t>4459759</t>
+  </si>
+  <si>
+    <t>4461908</t>
+  </si>
+  <si>
+    <t>4448992</t>
+  </si>
+  <si>
+    <t>4479733</t>
+  </si>
+  <si>
+    <t>1431931</t>
+  </si>
+  <si>
+    <t>779794</t>
+  </si>
+  <si>
+    <t>3415268</t>
+  </si>
+  <si>
+    <t>1531539</t>
+  </si>
+  <si>
+    <t>803935</t>
+  </si>
+  <si>
+    <t>4014588</t>
+  </si>
+  <si>
+    <t>1098768</t>
+  </si>
+  <si>
+    <t>3358948</t>
+  </si>
+  <si>
+    <t>4476741</t>
+  </si>
+  <si>
+    <t>4488870</t>
+  </si>
+  <si>
+    <t>4490481</t>
+  </si>
+  <si>
+    <t>3831895</t>
+  </si>
+  <si>
+    <t>3385636</t>
+  </si>
+  <si>
+    <t>3412847</t>
+  </si>
+  <si>
+    <t>795548</t>
+  </si>
+  <si>
+    <t>9157849</t>
+  </si>
+  <si>
+    <t>1904509</t>
+  </si>
+  <si>
+    <t>4494531</t>
+  </si>
+  <si>
+    <t>4044221</t>
+  </si>
+  <si>
+    <t>1043911</t>
+  </si>
+  <si>
+    <t>877821</t>
+  </si>
+  <si>
+    <t>1848735</t>
+  </si>
+  <si>
+    <t>1960727</t>
+  </si>
+  <si>
+    <t>3193339</t>
+  </si>
+  <si>
+    <t>811842</t>
+  </si>
+  <si>
+    <t>3979809.831932773</t>
+  </si>
+  <si>
+    <t>1077012</t>
+  </si>
+  <si>
+    <t>1082004</t>
+  </si>
+  <si>
+    <t>867153</t>
+  </si>
+  <si>
+    <t>1075515</t>
+  </si>
+  <si>
+    <t>915488.5210084034</t>
+  </si>
+  <si>
+    <t>230479</t>
+  </si>
+  <si>
+    <t>476401</t>
+  </si>
+  <si>
+    <t>555730</t>
+  </si>
+  <si>
+    <t>1164377</t>
+  </si>
+  <si>
+    <t>3979492.084033613</t>
+  </si>
+  <si>
+    <t>2361363.202583</t>
+  </si>
+  <si>
+    <t>794601.986185</t>
+  </si>
+  <si>
+    <t>1454200.058045</t>
+  </si>
+  <si>
+    <t>2701209.680672269</t>
+  </si>
+  <si>
+    <t>2206318.487394958</t>
+  </si>
+  <si>
+    <t>1192068</t>
+  </si>
+  <si>
+    <t>783807</t>
+  </si>
+  <si>
+    <t>1952501</t>
+  </si>
+  <si>
+    <t>1946369</t>
+  </si>
+  <si>
+    <t>1952972</t>
+  </si>
+  <si>
+    <t>1670354.3193277312</t>
+  </si>
+  <si>
+    <t>1375071.4285714286</t>
+  </si>
+  <si>
+    <t>576992.359034</t>
+  </si>
+  <si>
+    <t>636800.256183</t>
+  </si>
+  <si>
+    <t>514935</t>
+  </si>
+  <si>
+    <t>357898.926476</t>
+  </si>
+  <si>
+    <t>543.2873529511285</t>
+  </si>
+  <si>
+    <t>438.46336044032887</t>
+  </si>
+  <si>
+    <t>3120.675226085267</t>
+  </si>
+  <si>
+    <t>1004.9830252309358</t>
+  </si>
+  <si>
+    <t>995.3654932834053</t>
+  </si>
+  <si>
+    <t>2593.080384836625</t>
+  </si>
+  <si>
+    <t>1689.436015868842</t>
+  </si>
+  <si>
+    <t>1867.8267232213293</t>
+  </si>
+  <si>
+    <t>437.82384588488736</t>
+  </si>
+  <si>
+    <t>1428.550196073948</t>
+  </si>
+  <si>
+    <t>2691.017183623538</t>
+  </si>
+  <si>
+    <t>2179.5328523900444</t>
+  </si>
+  <si>
+    <t>1928.00256096585</t>
+  </si>
+  <si>
+    <t>2181.939474316028</t>
+  </si>
+  <si>
+    <t>1932.816948106143</t>
+  </si>
+  <si>
+    <t>2184.3460962420113</t>
+  </si>
+  <si>
+    <t>2227.7384613625713</t>
+  </si>
+  <si>
+    <t>2224.0147712851704</t>
+  </si>
+  <si>
+    <t>2229.894703145186</t>
+  </si>
+  <si>
+    <t>1498.63377045057</t>
+  </si>
+  <si>
+    <t>985.1006665370941</t>
+  </si>
+  <si>
+    <t>2139.7830038757475</t>
+  </si>
+  <si>
+    <t>2694.628831445002</t>
+  </si>
+  <si>
+    <t>1428.551339362274</t>
+  </si>
+  <si>
+    <t>2230.4800667680383</t>
+  </si>
+  <si>
+    <t>2225.0917488881523</t>
+  </si>
+  <si>
+    <t>5098.790400951216</t>
+  </si>
+  <si>
+    <t>5101.247327563538</t>
+  </si>
+  <si>
+    <t>5086.480615546435</t>
+  </si>
+  <si>
+    <t>5121.626441972401</t>
+  </si>
+  <si>
+    <t>1637.1099957698332</t>
+  </si>
+  <si>
+    <t>891.5293767935336</t>
+  </si>
+  <si>
+    <t>3904.6360341614554</t>
+  </si>
+  <si>
+    <t>1750.9906593343776</t>
+  </si>
+  <si>
+    <t>919.1295002686728</t>
+  </si>
+  <si>
+    <t>4589.831593629598</t>
+  </si>
+  <si>
+    <t>1256.2086272537072</t>
+  </si>
+  <si>
+    <t>3840.24603564773</t>
+  </si>
+  <si>
+    <t>5118.205723301359</t>
+  </si>
+  <si>
+    <t>5132.072667405993</t>
+  </si>
+  <si>
+    <t>5133.91450489899</t>
+  </si>
+  <si>
+    <t>4380.960819509072</t>
+  </si>
+  <si>
+    <t>3870.758114488893</t>
+  </si>
+  <si>
+    <t>3901.868133124493</t>
+  </si>
+  <si>
+    <t>909.5407410794929</t>
+  </si>
+  <si>
+    <t>10470.06185189843</t>
+  </si>
+  <si>
+    <t>2177.4029062389245</t>
+  </si>
+  <si>
+    <t>5138.544822618816</t>
+  </si>
+  <si>
+    <t>4623.710656590486</t>
+  </si>
+  <si>
+    <t>1193.4912595607486</t>
+  </si>
+  <si>
+    <t>1003.6025015148571</t>
+  </si>
+  <si>
+    <t>2113.6371431511316</t>
+  </si>
+  <si>
+    <t>2241.6762893434097</t>
+  </si>
+  <si>
+    <t>3650.9071992865884</t>
+  </si>
+  <si>
+    <t>928.1694810614289</t>
+  </si>
+  <si>
+    <t>4550.070120082743</t>
+  </si>
+  <si>
+    <t>1231.3352464357988</t>
+  </si>
+  <si>
+    <t>1237.0425417586061</t>
+  </si>
+  <si>
+    <t>991.4059016543382</t>
+  </si>
+  <si>
+    <t>1229.623743811952</t>
+  </si>
+  <si>
+    <t>1046.6673385487138</t>
+  </si>
+  <si>
+    <t>263.50395006116594</t>
+  </si>
+  <si>
+    <t>544.6637017389415</t>
+  </si>
+  <si>
+    <t>635.3596213429065</t>
+  </si>
+  <si>
+    <t>1331.2186310265586</t>
+  </si>
+  <si>
+    <t>4549.70684261906</t>
+  </si>
+  <si>
+    <t>2699.718982682612</t>
+  </si>
+  <si>
+    <t>908.4591745286795</t>
+  </si>
+  <si>
+    <t>1662.5699498610907</t>
+  </si>
+  <si>
+    <t>3088.261493674493</t>
+  </si>
+  <si>
+    <t>2522.4581698182833</t>
+  </si>
+  <si>
+    <t>1312.864679126422</t>
+  </si>
+  <si>
+    <t>863.2330752541327</t>
+  </si>
+  <si>
+    <t>2150.3551801231292</t>
+  </si>
+  <si>
+    <t>2143.601801781958</t>
+  </si>
+  <si>
+    <t>2150.873908302955</t>
+  </si>
+  <si>
+    <t>1909.6965933754802</t>
+  </si>
+  <si>
+    <t>1572.1031115408425</t>
+  </si>
+  <si>
+    <t>635.4611383759733</t>
+  </si>
+  <si>
+    <t>701.3295919371359</t>
+  </si>
+  <si>
+    <t>567.1152765999625</t>
+  </si>
+  <si>
+    <t>394.1661543365015</t>
   </si>
 </sst>
 </file>
@@ -1370,17 +2576,17 @@
       <c r="C2" t="s">
         <v>165</v>
       </c>
-      <c r="D2">
-        <v>749</v>
-      </c>
-      <c r="E2">
-        <v>3076.2</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
+      <c r="D2" t="s">
+        <v>321</v>
+      </c>
+      <c r="E2" t="s">
+        <v>448</v>
+      </c>
+      <c r="F2" t="s">
+        <v>320</v>
+      </c>
+      <c r="G2" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1393,17 +2599,17 @@
       <c r="C3" t="s">
         <v>166</v>
       </c>
-      <c r="D3">
-        <v>2088</v>
-      </c>
-      <c r="E3">
-        <v>8610.800000000001</v>
-      </c>
-      <c r="F3">
-        <v>481684</v>
-      </c>
-      <c r="G3">
-        <v>543.2873529511285</v>
+      <c r="D3" t="s">
+        <v>322</v>
+      </c>
+      <c r="E3" t="s">
+        <v>449</v>
+      </c>
+      <c r="F3" t="s">
+        <v>558</v>
+      </c>
+      <c r="G3" t="s">
+        <v>640</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1416,17 +2622,17 @@
       <c r="C4" t="s">
         <v>167</v>
       </c>
-      <c r="D4">
-        <v>1594</v>
-      </c>
-      <c r="E4">
-        <v>6570</v>
-      </c>
-      <c r="F4">
-        <v>388746</v>
-      </c>
-      <c r="G4">
-        <v>438.4633604403289</v>
+      <c r="D4" t="s">
+        <v>323</v>
+      </c>
+      <c r="E4" t="s">
+        <v>450</v>
+      </c>
+      <c r="F4" t="s">
+        <v>559</v>
+      </c>
+      <c r="G4" t="s">
+        <v>641</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1439,17 +2645,17 @@
       <c r="C5" t="s">
         <v>168</v>
       </c>
-      <c r="D5">
-        <v>6646</v>
-      </c>
-      <c r="E5">
-        <v>31900.8</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
+      <c r="D5" t="s">
+        <v>324</v>
+      </c>
+      <c r="E5" t="s">
+        <v>451</v>
+      </c>
+      <c r="F5" t="s">
+        <v>320</v>
+      </c>
+      <c r="G5" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1462,17 +2668,17 @@
       <c r="C6" t="s">
         <v>169</v>
       </c>
-      <c r="D6">
-        <v>5534</v>
-      </c>
-      <c r="E6">
-        <v>26563.2</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
+      <c r="D6" t="s">
+        <v>325</v>
+      </c>
+      <c r="E6" t="s">
+        <v>452</v>
+      </c>
+      <c r="F6" t="s">
+        <v>320</v>
+      </c>
+      <c r="G6" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1485,17 +2691,17 @@
       <c r="C7" t="s">
         <v>170</v>
       </c>
-      <c r="D7">
-        <v>6346</v>
-      </c>
-      <c r="E7">
-        <v>30460.8</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
+      <c r="D7" t="s">
+        <v>326</v>
+      </c>
+      <c r="E7" t="s">
+        <v>453</v>
+      </c>
+      <c r="F7" t="s">
+        <v>320</v>
+      </c>
+      <c r="G7" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1508,17 +2714,17 @@
       <c r="C8" t="s">
         <v>171</v>
       </c>
-      <c r="D8">
-        <v>2391</v>
-      </c>
-      <c r="E8">
-        <v>11476.8</v>
-      </c>
-      <c r="F8">
-        <v>2729561</v>
-      </c>
-      <c r="G8">
-        <v>3120.675226085267</v>
+      <c r="D8" t="s">
+        <v>327</v>
+      </c>
+      <c r="E8" t="s">
+        <v>454</v>
+      </c>
+      <c r="F8" t="s">
+        <v>560</v>
+      </c>
+      <c r="G8" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1531,17 +2737,17 @@
       <c r="C9" t="s">
         <v>172</v>
       </c>
-      <c r="D9">
-        <v>12103.86600000001</v>
-      </c>
-      <c r="E9">
-        <v>8300</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
+      <c r="D9" t="s">
+        <v>328</v>
+      </c>
+      <c r="E9" t="s">
+        <v>455</v>
+      </c>
+      <c r="F9" t="s">
+        <v>320</v>
+      </c>
+      <c r="G9" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1554,17 +2760,17 @@
       <c r="C10" t="s">
         <v>173</v>
       </c>
-      <c r="D10">
-        <v>7890</v>
-      </c>
-      <c r="E10">
-        <v>37871.99999999997</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
+      <c r="D10" t="s">
+        <v>329</v>
+      </c>
+      <c r="E10" t="s">
+        <v>456</v>
+      </c>
+      <c r="F10" t="s">
+        <v>320</v>
+      </c>
+      <c r="G10" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1577,17 +2783,17 @@
       <c r="C11" t="s">
         <v>174</v>
       </c>
-      <c r="D11">
-        <v>3522</v>
-      </c>
-      <c r="E11">
-        <v>16905.59999999999</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
+      <c r="D11" t="s">
+        <v>330</v>
+      </c>
+      <c r="E11" t="s">
+        <v>457</v>
+      </c>
+      <c r="F11" t="s">
+        <v>320</v>
+      </c>
+      <c r="G11" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1600,17 +2806,17 @@
       <c r="C12" t="s">
         <v>175</v>
       </c>
-      <c r="D12">
-        <v>23571.8</v>
-      </c>
-      <c r="E12">
-        <v>7081</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
+      <c r="D12" t="s">
+        <v>331</v>
+      </c>
+      <c r="E12" t="s">
+        <v>458</v>
+      </c>
+      <c r="F12" t="s">
+        <v>320</v>
+      </c>
+      <c r="G12" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1623,17 +2829,17 @@
       <c r="C13" t="s">
         <v>176</v>
       </c>
-      <c r="D13">
-        <v>24015.6</v>
-      </c>
-      <c r="E13">
-        <v>7081</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
+      <c r="D13" t="s">
+        <v>332</v>
+      </c>
+      <c r="E13" t="s">
+        <v>458</v>
+      </c>
+      <c r="F13" t="s">
+        <v>320</v>
+      </c>
+      <c r="G13" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1646,17 +2852,17 @@
       <c r="C14" t="s">
         <v>177</v>
       </c>
-      <c r="D14">
-        <v>4011</v>
-      </c>
-      <c r="E14">
-        <v>17322.3</v>
-      </c>
-      <c r="F14">
-        <v>891028</v>
-      </c>
-      <c r="G14">
-        <v>1004.983025230936</v>
+      <c r="D14" t="s">
+        <v>333</v>
+      </c>
+      <c r="E14" t="s">
+        <v>459</v>
+      </c>
+      <c r="F14" t="s">
+        <v>561</v>
+      </c>
+      <c r="G14" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1669,17 +2875,17 @@
       <c r="C15" t="s">
         <v>178</v>
       </c>
-      <c r="D15">
-        <v>3970</v>
-      </c>
-      <c r="E15">
-        <v>17146</v>
-      </c>
-      <c r="F15">
-        <v>882501</v>
-      </c>
-      <c r="G15">
-        <v>995.3654932834053</v>
+      <c r="D15" t="s">
+        <v>334</v>
+      </c>
+      <c r="E15" t="s">
+        <v>460</v>
+      </c>
+      <c r="F15" t="s">
+        <v>562</v>
+      </c>
+      <c r="G15" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1692,17 +2898,17 @@
       <c r="C16" t="s">
         <v>179</v>
       </c>
-      <c r="D16">
-        <v>8077</v>
-      </c>
-      <c r="E16">
-        <v>38011.9</v>
-      </c>
-      <c r="F16">
-        <v>2299051</v>
-      </c>
-      <c r="G16">
-        <v>2593.080384836625</v>
+      <c r="D16" t="s">
+        <v>335</v>
+      </c>
+      <c r="E16" t="s">
+        <v>461</v>
+      </c>
+      <c r="F16" t="s">
+        <v>563</v>
+      </c>
+      <c r="G16" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1715,17 +2921,17 @@
       <c r="C17" t="s">
         <v>180</v>
       </c>
-      <c r="D17">
-        <v>4852</v>
-      </c>
-      <c r="E17">
-        <v>23289.6</v>
-      </c>
-      <c r="F17">
-        <v>1477699</v>
-      </c>
-      <c r="G17">
-        <v>1689.436015868842</v>
+      <c r="D17" t="s">
+        <v>336</v>
+      </c>
+      <c r="E17" t="s">
+        <v>462</v>
+      </c>
+      <c r="F17" t="s">
+        <v>564</v>
+      </c>
+      <c r="G17" t="s">
+        <v>646</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1738,17 +2944,17 @@
       <c r="C18" t="s">
         <v>181</v>
       </c>
-      <c r="D18">
-        <v>5443</v>
-      </c>
-      <c r="E18">
-        <v>26126.4</v>
-      </c>
-      <c r="F18">
-        <v>1633732</v>
-      </c>
-      <c r="G18">
-        <v>1867.826723221329</v>
+      <c r="D18" t="s">
+        <v>337</v>
+      </c>
+      <c r="E18" t="s">
+        <v>463</v>
+      </c>
+      <c r="F18" t="s">
+        <v>565</v>
+      </c>
+      <c r="G18" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1761,17 +2967,17 @@
       <c r="C19" t="s">
         <v>182</v>
       </c>
-      <c r="D19">
-        <v>8087</v>
-      </c>
-      <c r="E19">
-        <v>40435.00000000001</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
+      <c r="D19" t="s">
+        <v>338</v>
+      </c>
+      <c r="E19" t="s">
+        <v>464</v>
+      </c>
+      <c r="F19" t="s">
+        <v>320</v>
+      </c>
+      <c r="G19" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1784,17 +2990,17 @@
       <c r="C20" t="s">
         <v>183</v>
       </c>
-      <c r="D20">
-        <v>4029</v>
-      </c>
-      <c r="E20">
-        <v>20145</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
+      <c r="D20" t="s">
+        <v>339</v>
+      </c>
+      <c r="E20" t="s">
+        <v>465</v>
+      </c>
+      <c r="F20" t="s">
+        <v>320</v>
+      </c>
+      <c r="G20" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1807,17 +3013,17 @@
       <c r="C21" t="s">
         <v>184</v>
       </c>
-      <c r="D21">
-        <v>4047</v>
-      </c>
-      <c r="E21">
-        <v>20235</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
+      <c r="D21" t="s">
+        <v>340</v>
+      </c>
+      <c r="E21" t="s">
+        <v>466</v>
+      </c>
+      <c r="F21" t="s">
+        <v>320</v>
+      </c>
+      <c r="G21" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1830,17 +3036,17 @@
       <c r="C22" t="s">
         <v>185</v>
       </c>
-      <c r="D22">
-        <v>3654</v>
-      </c>
-      <c r="E22">
-        <v>18270</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
+      <c r="D22" t="s">
+        <v>341</v>
+      </c>
+      <c r="E22" t="s">
+        <v>467</v>
+      </c>
+      <c r="F22" t="s">
+        <v>320</v>
+      </c>
+      <c r="G22" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1853,17 +3059,17 @@
       <c r="C23" t="s">
         <v>186</v>
       </c>
-      <c r="D23">
-        <v>1608</v>
-      </c>
-      <c r="E23">
-        <v>2487</v>
-      </c>
-      <c r="F23">
-        <v>388179</v>
-      </c>
-      <c r="G23">
-        <v>437.8238458848874</v>
+      <c r="D23" t="s">
+        <v>342</v>
+      </c>
+      <c r="E23" t="s">
+        <v>468</v>
+      </c>
+      <c r="F23" t="s">
+        <v>566</v>
+      </c>
+      <c r="G23" t="s">
+        <v>648</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1876,17 +3082,17 @@
       <c r="C24" t="s">
         <v>187</v>
       </c>
-      <c r="D24">
-        <v>4031</v>
-      </c>
-      <c r="E24">
-        <v>19348.8</v>
-      </c>
-      <c r="F24">
-        <v>1249510</v>
-      </c>
-      <c r="G24">
-        <v>1428.550196073948</v>
+      <c r="D24" t="s">
+        <v>343</v>
+      </c>
+      <c r="E24" t="s">
+        <v>469</v>
+      </c>
+      <c r="F24" t="s">
+        <v>567</v>
+      </c>
+      <c r="G24" t="s">
+        <v>649</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1899,17 +3105,17 @@
       <c r="C25" t="s">
         <v>188</v>
       </c>
-      <c r="D25">
-        <v>8066</v>
-      </c>
-      <c r="E25">
-        <v>38716.8</v>
-      </c>
-      <c r="F25">
-        <v>2353752</v>
-      </c>
-      <c r="G25">
-        <v>2691.017183623538</v>
+      <c r="D25" t="s">
+        <v>344</v>
+      </c>
+      <c r="E25" t="s">
+        <v>470</v>
+      </c>
+      <c r="F25" t="s">
+        <v>568</v>
+      </c>
+      <c r="G25" t="s">
+        <v>650</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1922,17 +3128,17 @@
       <c r="C26" t="s">
         <v>189</v>
       </c>
-      <c r="D26">
-        <v>3968</v>
-      </c>
-      <c r="E26">
-        <v>19890</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
+      <c r="D26" t="s">
+        <v>345</v>
+      </c>
+      <c r="E26" t="s">
+        <v>471</v>
+      </c>
+      <c r="F26" t="s">
+        <v>320</v>
+      </c>
+      <c r="G26" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1945,17 +3151,17 @@
       <c r="C27" t="s">
         <v>190</v>
       </c>
-      <c r="D27">
-        <v>16176</v>
-      </c>
-      <c r="E27">
-        <v>80929.99999999999</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
+      <c r="D27" t="s">
+        <v>346</v>
+      </c>
+      <c r="E27" t="s">
+        <v>472</v>
+      </c>
+      <c r="F27" t="s">
+        <v>320</v>
+      </c>
+      <c r="G27" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1968,17 +3174,17 @@
       <c r="C28" t="s">
         <v>191</v>
       </c>
-      <c r="D28">
-        <v>6434</v>
-      </c>
-      <c r="E28">
-        <v>30883.2</v>
-      </c>
-      <c r="F28">
-        <v>1906372</v>
-      </c>
-      <c r="G28">
-        <v>2179.532852390044</v>
+      <c r="D28" t="s">
+        <v>347</v>
+      </c>
+      <c r="E28" t="s">
+        <v>473</v>
+      </c>
+      <c r="F28" t="s">
+        <v>569</v>
+      </c>
+      <c r="G28" t="s">
+        <v>651</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1991,17 +3197,17 @@
       <c r="C29" t="s">
         <v>192</v>
       </c>
-      <c r="D29">
-        <v>5644</v>
-      </c>
-      <c r="E29">
-        <v>27091.19999999999</v>
-      </c>
-      <c r="F29">
-        <v>1686366</v>
-      </c>
-      <c r="G29">
-        <v>1928.00256096585</v>
+      <c r="D29" t="s">
+        <v>348</v>
+      </c>
+      <c r="E29" t="s">
+        <v>474</v>
+      </c>
+      <c r="F29" t="s">
+        <v>570</v>
+      </c>
+      <c r="G29" t="s">
+        <v>652</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -2014,17 +3220,17 @@
       <c r="C30" t="s">
         <v>193</v>
       </c>
-      <c r="D30">
-        <v>6408</v>
-      </c>
-      <c r="E30">
-        <v>30758.4</v>
-      </c>
-      <c r="F30">
-        <v>1908477</v>
-      </c>
-      <c r="G30">
-        <v>2181.939474316028</v>
+      <c r="D30" t="s">
+        <v>349</v>
+      </c>
+      <c r="E30" t="s">
+        <v>475</v>
+      </c>
+      <c r="F30" t="s">
+        <v>571</v>
+      </c>
+      <c r="G30" t="s">
+        <v>653</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -2037,17 +3243,17 @@
       <c r="C31" t="s">
         <v>194</v>
       </c>
-      <c r="D31">
-        <v>5631</v>
-      </c>
-      <c r="E31">
-        <v>27028.8</v>
-      </c>
-      <c r="F31">
-        <v>1690577</v>
-      </c>
-      <c r="G31">
-        <v>1932.816948106143</v>
+      <c r="D31" t="s">
+        <v>350</v>
+      </c>
+      <c r="E31" t="s">
+        <v>476</v>
+      </c>
+      <c r="F31" t="s">
+        <v>572</v>
+      </c>
+      <c r="G31" t="s">
+        <v>654</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -2060,17 +3266,17 @@
       <c r="C32" t="s">
         <v>195</v>
       </c>
-      <c r="D32">
-        <v>8060</v>
-      </c>
-      <c r="E32">
-        <v>39494.00000000001</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="G32">
-        <v>0</v>
+      <c r="D32" t="s">
+        <v>351</v>
+      </c>
+      <c r="E32" t="s">
+        <v>477</v>
+      </c>
+      <c r="F32" t="s">
+        <v>320</v>
+      </c>
+      <c r="G32" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -2083,17 +3289,17 @@
       <c r="C33" t="s">
         <v>196</v>
       </c>
-      <c r="D33">
-        <v>8064</v>
-      </c>
-      <c r="E33">
-        <v>39513.6</v>
-      </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-      <c r="G33">
-        <v>0</v>
+      <c r="D33" t="s">
+        <v>352</v>
+      </c>
+      <c r="E33" t="s">
+        <v>478</v>
+      </c>
+      <c r="F33" t="s">
+        <v>320</v>
+      </c>
+      <c r="G33" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -2106,17 +3312,17 @@
       <c r="C34" t="s">
         <v>197</v>
       </c>
-      <c r="D34">
-        <v>24015.6</v>
-      </c>
-      <c r="E34">
-        <v>7081</v>
-      </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-      <c r="G34">
-        <v>0</v>
+      <c r="D34" t="s">
+        <v>332</v>
+      </c>
+      <c r="E34" t="s">
+        <v>458</v>
+      </c>
+      <c r="F34" t="s">
+        <v>320</v>
+      </c>
+      <c r="G34" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -2129,17 +3335,17 @@
       <c r="C35" t="s">
         <v>198</v>
       </c>
-      <c r="D35">
-        <v>24015.6</v>
-      </c>
-      <c r="E35">
-        <v>8300</v>
-      </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="G35">
-        <v>0</v>
+      <c r="D35" t="s">
+        <v>332</v>
+      </c>
+      <c r="E35" t="s">
+        <v>455</v>
+      </c>
+      <c r="F35" t="s">
+        <v>320</v>
+      </c>
+      <c r="G35" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -2152,17 +3358,17 @@
       <c r="C36" t="s">
         <v>171</v>
       </c>
-      <c r="D36">
-        <v>2391</v>
-      </c>
-      <c r="E36">
-        <v>11476.8</v>
-      </c>
-      <c r="F36">
-        <v>2729561</v>
-      </c>
-      <c r="G36">
-        <v>3120.675226085267</v>
+      <c r="D36" t="s">
+        <v>353</v>
+      </c>
+      <c r="E36" t="s">
+        <v>479</v>
+      </c>
+      <c r="F36" t="s">
+        <v>320</v>
+      </c>
+      <c r="G36" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2175,17 +3381,17 @@
       <c r="C37" t="s">
         <v>199</v>
       </c>
-      <c r="D37">
-        <v>6417</v>
-      </c>
-      <c r="E37">
-        <v>30801.59999999999</v>
-      </c>
-      <c r="F37">
-        <v>1910582</v>
-      </c>
-      <c r="G37">
-        <v>2184.346096242011</v>
+      <c r="D37" t="s">
+        <v>354</v>
+      </c>
+      <c r="E37" t="s">
+        <v>480</v>
+      </c>
+      <c r="F37" t="s">
+        <v>573</v>
+      </c>
+      <c r="G37" t="s">
+        <v>655</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2198,17 +3404,17 @@
       <c r="C38" t="s">
         <v>200</v>
       </c>
-      <c r="D38">
-        <v>4032</v>
-      </c>
-      <c r="E38">
-        <v>18345</v>
-      </c>
-      <c r="F38">
-        <v>1948536</v>
-      </c>
-      <c r="G38">
-        <v>2227.738461362571</v>
+      <c r="D38" t="s">
+        <v>355</v>
+      </c>
+      <c r="E38" t="s">
+        <v>481</v>
+      </c>
+      <c r="F38" t="s">
+        <v>574</v>
+      </c>
+      <c r="G38" t="s">
+        <v>656</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -2221,17 +3427,17 @@
       <c r="C39" t="s">
         <v>201</v>
       </c>
-      <c r="D39">
-        <v>4028</v>
-      </c>
-      <c r="E39">
-        <v>18327</v>
-      </c>
-      <c r="F39">
-        <v>1945279</v>
-      </c>
-      <c r="G39">
-        <v>2224.01477128517</v>
+      <c r="D39" t="s">
+        <v>356</v>
+      </c>
+      <c r="E39" t="s">
+        <v>482</v>
+      </c>
+      <c r="F39" t="s">
+        <v>575</v>
+      </c>
+      <c r="G39" t="s">
+        <v>657</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2244,17 +3450,17 @@
       <c r="C40" t="s">
         <v>202</v>
       </c>
-      <c r="D40">
-        <v>4036</v>
-      </c>
-      <c r="E40">
-        <v>18363</v>
-      </c>
-      <c r="F40">
-        <v>1950422</v>
-      </c>
-      <c r="G40">
-        <v>2229.894703145186</v>
+      <c r="D40" t="s">
+        <v>357</v>
+      </c>
+      <c r="E40" t="s">
+        <v>483</v>
+      </c>
+      <c r="F40" t="s">
+        <v>576</v>
+      </c>
+      <c r="G40" t="s">
+        <v>658</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -2267,17 +3473,17 @@
       <c r="C41" t="s">
         <v>203</v>
       </c>
-      <c r="D41">
-        <v>4004</v>
-      </c>
-      <c r="E41">
-        <v>19669.6</v>
-      </c>
-      <c r="F41">
-        <v>1310810</v>
-      </c>
-      <c r="G41">
-        <v>1498.63377045057</v>
+      <c r="D41" t="s">
+        <v>358</v>
+      </c>
+      <c r="E41" t="s">
+        <v>484</v>
+      </c>
+      <c r="F41" t="s">
+        <v>577</v>
+      </c>
+      <c r="G41" t="s">
+        <v>659</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -2290,17 +3496,17 @@
       <c r="C42" t="s">
         <v>204</v>
       </c>
-      <c r="D42">
-        <v>4017</v>
-      </c>
-      <c r="E42">
-        <v>19733.3</v>
-      </c>
-      <c r="F42">
-        <v>861638</v>
-      </c>
-      <c r="G42">
-        <v>985.1006665370941</v>
+      <c r="D42" t="s">
+        <v>359</v>
+      </c>
+      <c r="E42" t="s">
+        <v>485</v>
+      </c>
+      <c r="F42" t="s">
+        <v>578</v>
+      </c>
+      <c r="G42" t="s">
+        <v>660</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -2313,17 +3519,17 @@
       <c r="C43" t="s">
         <v>205</v>
       </c>
-      <c r="D43">
-        <v>4005</v>
-      </c>
-      <c r="E43">
-        <v>21877.25</v>
-      </c>
-      <c r="F43">
-        <v>0</v>
-      </c>
-      <c r="G43">
-        <v>0</v>
+      <c r="D43" t="s">
+        <v>360</v>
+      </c>
+      <c r="E43" t="s">
+        <v>486</v>
+      </c>
+      <c r="F43" t="s">
+        <v>320</v>
+      </c>
+      <c r="G43" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -2336,17 +3542,17 @@
       <c r="C44" t="s">
         <v>206</v>
       </c>
-      <c r="D44">
-        <v>4011</v>
-      </c>
-      <c r="E44">
-        <v>21909.95</v>
-      </c>
-      <c r="F44">
-        <v>0</v>
-      </c>
-      <c r="G44">
-        <v>0</v>
+      <c r="D44" t="s">
+        <v>333</v>
+      </c>
+      <c r="E44" t="s">
+        <v>487</v>
+      </c>
+      <c r="F44" t="s">
+        <v>320</v>
+      </c>
+      <c r="G44" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -2359,17 +3565,17 @@
       <c r="C45" t="s">
         <v>207</v>
       </c>
-      <c r="D45">
-        <v>8013</v>
-      </c>
-      <c r="E45">
-        <v>41717.59999999998</v>
-      </c>
-      <c r="F45">
-        <v>1871604</v>
-      </c>
-      <c r="G45">
-        <v>2139.783003875747</v>
+      <c r="D45" t="s">
+        <v>361</v>
+      </c>
+      <c r="E45" t="s">
+        <v>488</v>
+      </c>
+      <c r="F45" t="s">
+        <v>579</v>
+      </c>
+      <c r="G45" t="s">
+        <v>661</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -2382,17 +3588,17 @@
       <c r="C46" t="s">
         <v>208</v>
       </c>
-      <c r="D46">
-        <v>8030</v>
-      </c>
-      <c r="E46">
-        <v>38544.00000000001</v>
-      </c>
-      <c r="F46">
-        <v>2356911</v>
-      </c>
-      <c r="G46">
-        <v>2694.628831445002</v>
+      <c r="D46" t="s">
+        <v>362</v>
+      </c>
+      <c r="E46" t="s">
+        <v>489</v>
+      </c>
+      <c r="F46" t="s">
+        <v>580</v>
+      </c>
+      <c r="G46" t="s">
+        <v>662</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -2405,17 +3611,17 @@
       <c r="C47" t="s">
         <v>209</v>
       </c>
-      <c r="D47">
-        <v>4025</v>
-      </c>
-      <c r="E47">
-        <v>19320</v>
-      </c>
-      <c r="F47">
-        <v>1249511</v>
-      </c>
-      <c r="G47">
-        <v>1428.551339362274</v>
+      <c r="D47" t="s">
+        <v>363</v>
+      </c>
+      <c r="E47" t="s">
+        <v>490</v>
+      </c>
+      <c r="F47" t="s">
+        <v>581</v>
+      </c>
+      <c r="G47" t="s">
+        <v>663</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -2428,17 +3634,17 @@
       <c r="C48" t="s">
         <v>210</v>
       </c>
-      <c r="D48">
-        <v>4019</v>
-      </c>
-      <c r="E48">
-        <v>21953.55</v>
-      </c>
-      <c r="F48">
-        <v>0</v>
-      </c>
-      <c r="G48">
-        <v>0</v>
+      <c r="D48" t="s">
+        <v>364</v>
+      </c>
+      <c r="E48" t="s">
+        <v>491</v>
+      </c>
+      <c r="F48" t="s">
+        <v>320</v>
+      </c>
+      <c r="G48" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -2451,17 +3657,17 @@
       <c r="C49" t="s">
         <v>211</v>
       </c>
-      <c r="D49">
-        <v>4019</v>
-      </c>
-      <c r="E49">
-        <v>21953.55</v>
-      </c>
-      <c r="F49">
-        <v>0</v>
-      </c>
-      <c r="G49">
-        <v>0</v>
+      <c r="D49" t="s">
+        <v>364</v>
+      </c>
+      <c r="E49" t="s">
+        <v>491</v>
+      </c>
+      <c r="F49" t="s">
+        <v>320</v>
+      </c>
+      <c r="G49" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -2474,17 +3680,17 @@
       <c r="C50" t="s">
         <v>212</v>
       </c>
-      <c r="D50">
-        <v>4022</v>
-      </c>
-      <c r="E50">
-        <v>21969.9</v>
-      </c>
-      <c r="F50">
-        <v>0</v>
-      </c>
-      <c r="G50">
-        <v>0</v>
+      <c r="D50" t="s">
+        <v>365</v>
+      </c>
+      <c r="E50" t="s">
+        <v>492</v>
+      </c>
+      <c r="F50" t="s">
+        <v>320</v>
+      </c>
+      <c r="G50" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -2497,17 +3703,17 @@
       <c r="C51" t="s">
         <v>213</v>
       </c>
-      <c r="D51">
-        <v>4002</v>
-      </c>
-      <c r="E51">
-        <v>21860.9</v>
-      </c>
-      <c r="F51">
-        <v>0</v>
-      </c>
-      <c r="G51">
-        <v>0</v>
+      <c r="D51" t="s">
+        <v>366</v>
+      </c>
+      <c r="E51" t="s">
+        <v>493</v>
+      </c>
+      <c r="F51" t="s">
+        <v>320</v>
+      </c>
+      <c r="G51" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -2520,17 +3726,17 @@
       <c r="C52" t="s">
         <v>214</v>
       </c>
-      <c r="D52">
-        <v>16164</v>
-      </c>
-      <c r="E52">
-        <v>85669.20000000001</v>
-      </c>
-      <c r="F52">
-        <v>0</v>
-      </c>
-      <c r="G52">
-        <v>0</v>
+      <c r="D52" t="s">
+        <v>367</v>
+      </c>
+      <c r="E52" t="s">
+        <v>320</v>
+      </c>
+      <c r="F52" t="s">
+        <v>320</v>
+      </c>
+      <c r="G52" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -2543,17 +3749,17 @@
       <c r="C53" t="s">
         <v>215</v>
       </c>
-      <c r="D53">
-        <v>23699.2</v>
-      </c>
-      <c r="E53">
-        <v>8300</v>
-      </c>
-      <c r="F53">
-        <v>0</v>
-      </c>
-      <c r="G53">
-        <v>0</v>
+      <c r="D53" t="s">
+        <v>368</v>
+      </c>
+      <c r="E53" t="s">
+        <v>455</v>
+      </c>
+      <c r="F53" t="s">
+        <v>320</v>
+      </c>
+      <c r="G53" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -2566,17 +3772,17 @@
       <c r="C54" t="s">
         <v>216</v>
       </c>
-      <c r="D54">
-        <v>23888.14</v>
-      </c>
-      <c r="E54">
-        <v>8300</v>
-      </c>
-      <c r="F54">
-        <v>0</v>
-      </c>
-      <c r="G54">
-        <v>0</v>
+      <c r="D54" t="s">
+        <v>369</v>
+      </c>
+      <c r="E54" t="s">
+        <v>455</v>
+      </c>
+      <c r="F54" t="s">
+        <v>320</v>
+      </c>
+      <c r="G54" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -2589,17 +3795,17 @@
       <c r="C55" t="s">
         <v>217</v>
       </c>
-      <c r="D55">
-        <v>24015.6</v>
-      </c>
-      <c r="E55">
-        <v>8300</v>
-      </c>
-      <c r="F55">
-        <v>0</v>
-      </c>
-      <c r="G55">
-        <v>0</v>
+      <c r="D55" t="s">
+        <v>332</v>
+      </c>
+      <c r="E55" t="s">
+        <v>455</v>
+      </c>
+      <c r="F55" t="s">
+        <v>320</v>
+      </c>
+      <c r="G55" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -2612,17 +3818,17 @@
       <c r="C56" t="s">
         <v>218</v>
       </c>
-      <c r="D56">
-        <v>4040</v>
-      </c>
-      <c r="E56">
-        <v>18381</v>
-      </c>
-      <c r="F56">
-        <v>1950934</v>
-      </c>
-      <c r="G56">
-        <v>2230.480066768038</v>
+      <c r="D56" t="s">
+        <v>370</v>
+      </c>
+      <c r="E56" t="s">
+        <v>494</v>
+      </c>
+      <c r="F56" t="s">
+        <v>582</v>
+      </c>
+      <c r="G56" t="s">
+        <v>664</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -2635,17 +3841,17 @@
       <c r="C57" t="s">
         <v>219</v>
       </c>
-      <c r="D57">
-        <v>4030</v>
-      </c>
-      <c r="E57">
-        <v>18416</v>
-      </c>
-      <c r="F57">
-        <v>1946221</v>
-      </c>
-      <c r="G57">
-        <v>2225.091748888152</v>
+      <c r="D57" t="s">
+        <v>371</v>
+      </c>
+      <c r="E57" t="s">
+        <v>495</v>
+      </c>
+      <c r="F57" t="s">
+        <v>583</v>
+      </c>
+      <c r="G57" t="s">
+        <v>665</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -2658,17 +3864,17 @@
       <c r="C58" t="s">
         <v>220</v>
       </c>
-      <c r="D58">
-        <v>16053</v>
-      </c>
-      <c r="E58">
-        <v>77054.39999999997</v>
-      </c>
-      <c r="F58">
-        <v>4459759</v>
-      </c>
-      <c r="G58">
-        <v>5098.790400951216</v>
+      <c r="D58" t="s">
+        <v>372</v>
+      </c>
+      <c r="E58" t="s">
+        <v>496</v>
+      </c>
+      <c r="F58" t="s">
+        <v>584</v>
+      </c>
+      <c r="G58" t="s">
+        <v>666</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -2681,17 +3887,17 @@
       <c r="C59" t="s">
         <v>221</v>
       </c>
-      <c r="D59">
-        <v>16061</v>
-      </c>
-      <c r="E59">
-        <v>77092.79999999999</v>
-      </c>
-      <c r="F59">
-        <v>4461908</v>
-      </c>
-      <c r="G59">
-        <v>5101.247327563538</v>
+      <c r="D59" t="s">
+        <v>373</v>
+      </c>
+      <c r="E59" t="s">
+        <v>497</v>
+      </c>
+      <c r="F59" t="s">
+        <v>585</v>
+      </c>
+      <c r="G59" t="s">
+        <v>667</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2704,17 +3910,17 @@
       <c r="C60" t="s">
         <v>222</v>
       </c>
-      <c r="D60">
-        <v>16013</v>
-      </c>
-      <c r="E60">
-        <v>76862.40000000002</v>
-      </c>
-      <c r="F60">
-        <v>4448992</v>
-      </c>
-      <c r="G60">
-        <v>5086.480615546435</v>
+      <c r="D60" t="s">
+        <v>374</v>
+      </c>
+      <c r="E60" t="s">
+        <v>498</v>
+      </c>
+      <c r="F60" t="s">
+        <v>586</v>
+      </c>
+      <c r="G60" t="s">
+        <v>668</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -2727,17 +3933,17 @@
       <c r="C61" t="s">
         <v>223</v>
       </c>
-      <c r="D61">
-        <v>16127</v>
-      </c>
-      <c r="E61">
-        <v>77409.59999999995</v>
-      </c>
-      <c r="F61">
-        <v>4479733</v>
-      </c>
-      <c r="G61">
-        <v>5121.626441972401</v>
+      <c r="D61" t="s">
+        <v>375</v>
+      </c>
+      <c r="E61" t="s">
+        <v>499</v>
+      </c>
+      <c r="F61" t="s">
+        <v>587</v>
+      </c>
+      <c r="G61" t="s">
+        <v>669</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -2750,17 +3956,17 @@
       <c r="C62" t="s">
         <v>224</v>
       </c>
-      <c r="D62">
-        <v>4817</v>
-      </c>
-      <c r="E62">
-        <v>23121.59999999999</v>
-      </c>
-      <c r="F62">
-        <v>1431931</v>
-      </c>
-      <c r="G62">
-        <v>1637.109995769833</v>
+      <c r="D62" t="s">
+        <v>376</v>
+      </c>
+      <c r="E62" t="s">
+        <v>500</v>
+      </c>
+      <c r="F62" t="s">
+        <v>588</v>
+      </c>
+      <c r="G62" t="s">
+        <v>670</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -2773,17 +3979,17 @@
       <c r="C63" t="s">
         <v>225</v>
       </c>
-      <c r="D63">
-        <v>2397</v>
-      </c>
-      <c r="E63">
-        <v>11505.6</v>
-      </c>
-      <c r="F63">
-        <v>779794</v>
-      </c>
-      <c r="G63">
-        <v>891.5293767935336</v>
+      <c r="D63" t="s">
+        <v>377</v>
+      </c>
+      <c r="E63" t="s">
+        <v>501</v>
+      </c>
+      <c r="F63" t="s">
+        <v>589</v>
+      </c>
+      <c r="G63" t="s">
+        <v>671</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2796,17 +4002,17 @@
       <c r="C64" t="s">
         <v>226</v>
       </c>
-      <c r="D64">
-        <v>12177</v>
-      </c>
-      <c r="E64">
-        <v>58449.59999999998</v>
-      </c>
-      <c r="F64">
-        <v>3415268</v>
-      </c>
-      <c r="G64">
-        <v>3904.636034161455</v>
+      <c r="D64" t="s">
+        <v>378</v>
+      </c>
+      <c r="E64" t="s">
+        <v>502</v>
+      </c>
+      <c r="F64" t="s">
+        <v>590</v>
+      </c>
+      <c r="G64" t="s">
+        <v>672</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -2819,17 +4025,17 @@
       <c r="C65" t="s">
         <v>227</v>
       </c>
-      <c r="D65">
-        <v>26320.93</v>
-      </c>
-      <c r="E65">
-        <v>0</v>
-      </c>
-      <c r="F65">
-        <v>0</v>
-      </c>
-      <c r="G65">
-        <v>0</v>
+      <c r="D65" t="s">
+        <v>379</v>
+      </c>
+      <c r="E65" t="s">
+        <v>503</v>
+      </c>
+      <c r="F65" t="s">
+        <v>320</v>
+      </c>
+      <c r="G65" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -2842,17 +4048,17 @@
       <c r="C66" t="s">
         <v>228</v>
       </c>
-      <c r="D66">
-        <v>12035</v>
-      </c>
-      <c r="E66">
-        <v>57767.99999999999</v>
-      </c>
-      <c r="F66">
-        <v>0</v>
-      </c>
-      <c r="G66">
-        <v>0</v>
+      <c r="D66" t="s">
+        <v>380</v>
+      </c>
+      <c r="E66" t="s">
+        <v>504</v>
+      </c>
+      <c r="F66" t="s">
+        <v>320</v>
+      </c>
+      <c r="G66" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -2865,17 +4071,17 @@
       <c r="C67" t="s">
         <v>229</v>
       </c>
-      <c r="D67">
-        <v>4048</v>
-      </c>
-      <c r="E67">
-        <v>21454.4</v>
-      </c>
-      <c r="F67">
-        <v>0</v>
-      </c>
-      <c r="G67">
-        <v>0</v>
+      <c r="D67" t="s">
+        <v>381</v>
+      </c>
+      <c r="E67" t="s">
+        <v>320</v>
+      </c>
+      <c r="F67" t="s">
+        <v>320</v>
+      </c>
+      <c r="G67" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -2888,17 +4094,17 @@
       <c r="C68" t="s">
         <v>230</v>
       </c>
-      <c r="D68">
-        <v>4017</v>
-      </c>
-      <c r="E68">
-        <v>20938.4</v>
-      </c>
-      <c r="F68">
-        <v>1531539</v>
-      </c>
-      <c r="G68">
-        <v>1750.990659334378</v>
+      <c r="D68" t="s">
+        <v>359</v>
+      </c>
+      <c r="E68" t="s">
+        <v>505</v>
+      </c>
+      <c r="F68" t="s">
+        <v>591</v>
+      </c>
+      <c r="G68" t="s">
+        <v>673</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -2911,17 +4117,17 @@
       <c r="C69" t="s">
         <v>231</v>
       </c>
-      <c r="D69">
-        <v>23696.95999999998</v>
-      </c>
-      <c r="E69">
-        <v>7081</v>
-      </c>
-      <c r="F69">
-        <v>0</v>
-      </c>
-      <c r="G69">
-        <v>0</v>
+      <c r="D69" t="s">
+        <v>382</v>
+      </c>
+      <c r="E69" t="s">
+        <v>458</v>
+      </c>
+      <c r="F69" t="s">
+        <v>320</v>
+      </c>
+      <c r="G69" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -2934,17 +4140,17 @@
       <c r="C70" t="s">
         <v>232</v>
       </c>
-      <c r="D70">
-        <v>23802.528</v>
-      </c>
-      <c r="E70">
-        <v>7081</v>
-      </c>
-      <c r="F70">
-        <v>0</v>
-      </c>
-      <c r="G70">
-        <v>0</v>
+      <c r="D70" t="s">
+        <v>383</v>
+      </c>
+      <c r="E70" t="s">
+        <v>458</v>
+      </c>
+      <c r="F70" t="s">
+        <v>320</v>
+      </c>
+      <c r="G70" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2957,17 +4163,17 @@
       <c r="C71" t="s">
         <v>233</v>
       </c>
-      <c r="D71">
-        <v>1606</v>
-      </c>
-      <c r="E71">
-        <v>8195.299999999999</v>
-      </c>
-      <c r="F71">
-        <v>803935</v>
-      </c>
-      <c r="G71">
-        <v>919.1295002686728</v>
+      <c r="D71" t="s">
+        <v>384</v>
+      </c>
+      <c r="E71" t="s">
+        <v>506</v>
+      </c>
+      <c r="F71" t="s">
+        <v>592</v>
+      </c>
+      <c r="G71" t="s">
+        <v>674</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2980,17 +4186,17 @@
       <c r="C72" t="s">
         <v>234</v>
       </c>
-      <c r="D72">
-        <v>14401</v>
-      </c>
-      <c r="E72">
-        <v>69124.79999999999</v>
-      </c>
-      <c r="F72">
-        <v>4014588</v>
-      </c>
-      <c r="G72">
-        <v>4589.831593629598</v>
+      <c r="D72" t="s">
+        <v>385</v>
+      </c>
+      <c r="E72" t="s">
+        <v>507</v>
+      </c>
+      <c r="F72" t="s">
+        <v>593</v>
+      </c>
+      <c r="G72" t="s">
+        <v>675</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -3003,17 +4209,17 @@
       <c r="C73" t="s">
         <v>235</v>
       </c>
-      <c r="D73">
-        <v>4012</v>
-      </c>
-      <c r="E73">
-        <v>18876.4</v>
-      </c>
-      <c r="F73">
-        <v>1098768</v>
-      </c>
-      <c r="G73">
-        <v>1256.208627253707</v>
+      <c r="D73" t="s">
+        <v>386</v>
+      </c>
+      <c r="E73" t="s">
+        <v>508</v>
+      </c>
+      <c r="F73" t="s">
+        <v>594</v>
+      </c>
+      <c r="G73" t="s">
+        <v>676</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -3026,17 +4232,17 @@
       <c r="C74" t="s">
         <v>236</v>
       </c>
-      <c r="D74">
-        <v>11968</v>
-      </c>
-      <c r="E74">
-        <v>57446.39999999997</v>
-      </c>
-      <c r="F74">
-        <v>3358948</v>
-      </c>
-      <c r="G74">
-        <v>3840.24603564773</v>
+      <c r="D74" t="s">
+        <v>387</v>
+      </c>
+      <c r="E74" t="s">
+        <v>509</v>
+      </c>
+      <c r="F74" t="s">
+        <v>595</v>
+      </c>
+      <c r="G74" t="s">
+        <v>677</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -3049,17 +4255,17 @@
       <c r="C75" t="s">
         <v>237</v>
       </c>
-      <c r="D75">
-        <v>16116</v>
-      </c>
-      <c r="E75">
-        <v>77356.79999999996</v>
-      </c>
-      <c r="F75">
-        <v>4476741</v>
-      </c>
-      <c r="G75">
-        <v>5118.205723301359</v>
+      <c r="D75" t="s">
+        <v>388</v>
+      </c>
+      <c r="E75" t="s">
+        <v>510</v>
+      </c>
+      <c r="F75" t="s">
+        <v>596</v>
+      </c>
+      <c r="G75" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -3072,17 +4278,17 @@
       <c r="C76" t="s">
         <v>238</v>
       </c>
-      <c r="D76">
-        <v>16161</v>
-      </c>
-      <c r="E76">
-        <v>77572.79999999999</v>
-      </c>
-      <c r="F76">
-        <v>4488870</v>
-      </c>
-      <c r="G76">
-        <v>5132.072667405993</v>
+      <c r="D76" t="s">
+        <v>389</v>
+      </c>
+      <c r="E76" t="s">
+        <v>511</v>
+      </c>
+      <c r="F76" t="s">
+        <v>597</v>
+      </c>
+      <c r="G76" t="s">
+        <v>679</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -3095,17 +4301,17 @@
       <c r="C77" t="s">
         <v>239</v>
       </c>
-      <c r="D77">
-        <v>16167</v>
-      </c>
-      <c r="E77">
-        <v>77601.60000000001</v>
-      </c>
-      <c r="F77">
-        <v>4490481</v>
-      </c>
-      <c r="G77">
-        <v>5133.91450489899</v>
+      <c r="D77" t="s">
+        <v>390</v>
+      </c>
+      <c r="E77" t="s">
+        <v>512</v>
+      </c>
+      <c r="F77" t="s">
+        <v>598</v>
+      </c>
+      <c r="G77" t="s">
+        <v>680</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -3118,17 +4324,17 @@
       <c r="C78" t="s">
         <v>240</v>
       </c>
-      <c r="D78">
-        <v>13723</v>
-      </c>
-      <c r="E78">
-        <v>65869.99999999997</v>
-      </c>
-      <c r="F78">
-        <v>3831895</v>
-      </c>
-      <c r="G78">
-        <v>4380.960819509072</v>
+      <c r="D78" t="s">
+        <v>391</v>
+      </c>
+      <c r="E78" t="s">
+        <v>513</v>
+      </c>
+      <c r="F78" t="s">
+        <v>599</v>
+      </c>
+      <c r="G78" t="s">
+        <v>681</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -3141,17 +4347,17 @@
       <c r="C79" t="s">
         <v>241</v>
       </c>
-      <c r="D79">
-        <v>12067</v>
-      </c>
-      <c r="E79">
-        <v>57921.60000000001</v>
-      </c>
-      <c r="F79">
-        <v>3385636</v>
-      </c>
-      <c r="G79">
-        <v>3870.758114488893</v>
+      <c r="D79" t="s">
+        <v>392</v>
+      </c>
+      <c r="E79" t="s">
+        <v>514</v>
+      </c>
+      <c r="F79" t="s">
+        <v>600</v>
+      </c>
+      <c r="G79" t="s">
+        <v>682</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -3164,17 +4370,17 @@
       <c r="C80" t="s">
         <v>242</v>
       </c>
-      <c r="D80">
-        <v>4037</v>
-      </c>
-      <c r="E80">
-        <v>19377.6</v>
-      </c>
-      <c r="F80">
-        <v>0</v>
-      </c>
-      <c r="G80">
-        <v>0</v>
+      <c r="D80" t="s">
+        <v>393</v>
+      </c>
+      <c r="E80" t="s">
+        <v>515</v>
+      </c>
+      <c r="F80" t="s">
+        <v>320</v>
+      </c>
+      <c r="G80" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -3187,17 +4393,17 @@
       <c r="C81" t="s">
         <v>243</v>
       </c>
-      <c r="D81">
-        <v>23508.67</v>
-      </c>
-      <c r="E81">
-        <v>7081</v>
-      </c>
-      <c r="F81">
-        <v>0</v>
-      </c>
-      <c r="G81">
-        <v>0</v>
+      <c r="D81" t="s">
+        <v>394</v>
+      </c>
+      <c r="E81" t="s">
+        <v>458</v>
+      </c>
+      <c r="F81" t="s">
+        <v>320</v>
+      </c>
+      <c r="G81" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -3210,17 +4416,17 @@
       <c r="C82" t="s">
         <v>244</v>
       </c>
-      <c r="D82">
-        <v>23264.35699999999</v>
-      </c>
-      <c r="E82">
-        <v>7081</v>
-      </c>
-      <c r="F82">
-        <v>0</v>
-      </c>
-      <c r="G82">
-        <v>0</v>
+      <c r="D82" t="s">
+        <v>395</v>
+      </c>
+      <c r="E82" t="s">
+        <v>458</v>
+      </c>
+      <c r="F82" t="s">
+        <v>320</v>
+      </c>
+      <c r="G82" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -3233,17 +4439,17 @@
       <c r="C83" t="s">
         <v>245</v>
       </c>
-      <c r="D83">
-        <v>12168</v>
-      </c>
-      <c r="E83">
-        <v>58406.39999999999</v>
-      </c>
-      <c r="F83">
-        <v>3412847</v>
-      </c>
-      <c r="G83">
-        <v>3901.868133124493</v>
+      <c r="D83" t="s">
+        <v>396</v>
+      </c>
+      <c r="E83" t="s">
+        <v>516</v>
+      </c>
+      <c r="F83" t="s">
+        <v>601</v>
+      </c>
+      <c r="G83" t="s">
+        <v>683</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -3256,17 +4462,17 @@
       <c r="C84" t="s">
         <v>246</v>
       </c>
-      <c r="D84">
-        <v>8887</v>
-      </c>
-      <c r="E84">
-        <v>47101.09999999999</v>
-      </c>
-      <c r="F84">
-        <v>0</v>
-      </c>
-      <c r="G84">
-        <v>0</v>
+      <c r="D84" t="s">
+        <v>397</v>
+      </c>
+      <c r="E84" t="s">
+        <v>320</v>
+      </c>
+      <c r="F84" t="s">
+        <v>320</v>
+      </c>
+      <c r="G84" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -3279,17 +4485,17 @@
       <c r="C85" t="s">
         <v>247</v>
       </c>
-      <c r="D85">
-        <v>1621</v>
-      </c>
-      <c r="E85">
-        <v>5227.2</v>
-      </c>
-      <c r="F85">
-        <v>795548</v>
-      </c>
-      <c r="G85">
-        <v>909.5407410794929</v>
+      <c r="D85" t="s">
+        <v>398</v>
+      </c>
+      <c r="E85" t="s">
+        <v>517</v>
+      </c>
+      <c r="F85" t="s">
+        <v>602</v>
+      </c>
+      <c r="G85" t="s">
+        <v>684</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -3302,17 +4508,17 @@
       <c r="C86" t="s">
         <v>248</v>
       </c>
-      <c r="D86">
-        <v>8073</v>
-      </c>
-      <c r="E86">
-        <v>43190.55</v>
-      </c>
-      <c r="F86">
-        <v>0</v>
-      </c>
-      <c r="G86">
-        <v>0</v>
+      <c r="D86" t="s">
+        <v>399</v>
+      </c>
+      <c r="E86" t="s">
+        <v>320</v>
+      </c>
+      <c r="F86" t="s">
+        <v>320</v>
+      </c>
+      <c r="G86" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -3325,17 +4531,17 @@
       <c r="C87" t="s">
         <v>249</v>
       </c>
-      <c r="D87">
-        <v>12130</v>
-      </c>
-      <c r="E87">
-        <v>58223.99999999999</v>
-      </c>
-      <c r="F87">
-        <v>9157849</v>
-      </c>
-      <c r="G87">
-        <v>10470.06185189843</v>
+      <c r="D87" t="s">
+        <v>400</v>
+      </c>
+      <c r="E87" t="s">
+        <v>518</v>
+      </c>
+      <c r="F87" t="s">
+        <v>603</v>
+      </c>
+      <c r="G87" t="s">
+        <v>685</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -3348,17 +4554,17 @@
       <c r="C88" t="s">
         <v>250</v>
       </c>
-      <c r="D88">
-        <v>4020</v>
-      </c>
-      <c r="E88">
-        <v>20386</v>
-      </c>
-      <c r="F88">
-        <v>1904509</v>
-      </c>
-      <c r="G88">
-        <v>2177.402906238925</v>
+      <c r="D88" t="s">
+        <v>401</v>
+      </c>
+      <c r="E88" t="s">
+        <v>519</v>
+      </c>
+      <c r="F88" t="s">
+        <v>604</v>
+      </c>
+      <c r="G88" t="s">
+        <v>686</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -3371,17 +4577,17 @@
       <c r="C89" t="s">
         <v>251</v>
       </c>
-      <c r="D89">
-        <v>16182</v>
-      </c>
-      <c r="E89">
-        <v>81233.63999999998</v>
-      </c>
-      <c r="F89">
-        <v>4494531</v>
-      </c>
-      <c r="G89">
-        <v>5138.544822618816</v>
+      <c r="D89" t="s">
+        <v>402</v>
+      </c>
+      <c r="E89" t="s">
+        <v>520</v>
+      </c>
+      <c r="F89" t="s">
+        <v>605</v>
+      </c>
+      <c r="G89" t="s">
+        <v>687</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -3394,17 +4600,17 @@
       <c r="C90" t="s">
         <v>252</v>
       </c>
-      <c r="D90">
-        <v>14511</v>
-      </c>
-      <c r="E90">
-        <v>72845.21999999999</v>
-      </c>
-      <c r="F90">
-        <v>4044221</v>
-      </c>
-      <c r="G90">
-        <v>4623.710656590486</v>
+      <c r="D90" t="s">
+        <v>403</v>
+      </c>
+      <c r="E90" t="s">
+        <v>521</v>
+      </c>
+      <c r="F90" t="s">
+        <v>606</v>
+      </c>
+      <c r="G90" t="s">
+        <v>688</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -3417,17 +4623,17 @@
       <c r="C91" t="s">
         <v>253</v>
       </c>
-      <c r="D91">
-        <v>4060</v>
-      </c>
-      <c r="E91">
-        <v>20350</v>
-      </c>
-      <c r="F91">
-        <v>1043911</v>
-      </c>
-      <c r="G91">
-        <v>1193.491259560749</v>
+      <c r="D91" t="s">
+        <v>404</v>
+      </c>
+      <c r="E91" t="s">
+        <v>522</v>
+      </c>
+      <c r="F91" t="s">
+        <v>607</v>
+      </c>
+      <c r="G91" t="s">
+        <v>689</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -3440,17 +4646,17 @@
       <c r="C92" t="s">
         <v>254</v>
       </c>
-      <c r="D92">
-        <v>4070</v>
-      </c>
-      <c r="E92">
-        <v>20400</v>
-      </c>
-      <c r="F92">
-        <v>877821</v>
-      </c>
-      <c r="G92">
-        <v>1003.602501514857</v>
+      <c r="D92" t="s">
+        <v>405</v>
+      </c>
+      <c r="E92" t="s">
+        <v>523</v>
+      </c>
+      <c r="F92" t="s">
+        <v>608</v>
+      </c>
+      <c r="G92" t="s">
+        <v>690</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -3463,17 +4669,17 @@
       <c r="C93" t="s">
         <v>255</v>
       </c>
-      <c r="D93">
-        <v>23696.95999999999</v>
-      </c>
-      <c r="E93">
-        <v>7081</v>
-      </c>
-      <c r="F93">
-        <v>0</v>
-      </c>
-      <c r="G93">
-        <v>0</v>
+      <c r="D93" t="s">
+        <v>406</v>
+      </c>
+      <c r="E93" t="s">
+        <v>458</v>
+      </c>
+      <c r="F93" t="s">
+        <v>320</v>
+      </c>
+      <c r="G93" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -3486,17 +4692,17 @@
       <c r="C94" t="s">
         <v>256</v>
       </c>
-      <c r="D94">
-        <v>23974.33599999999</v>
-      </c>
-      <c r="E94">
-        <v>8300</v>
-      </c>
-      <c r="F94">
-        <v>0</v>
-      </c>
-      <c r="G94">
-        <v>0</v>
+      <c r="D94" t="s">
+        <v>407</v>
+      </c>
+      <c r="E94" t="s">
+        <v>455</v>
+      </c>
+      <c r="F94" t="s">
+        <v>320</v>
+      </c>
+      <c r="G94" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -3509,17 +4715,17 @@
       <c r="C95" t="s">
         <v>257</v>
       </c>
-      <c r="D95">
-        <v>23696.95999999999</v>
-      </c>
-      <c r="E95">
-        <v>8300</v>
-      </c>
-      <c r="F95">
-        <v>0</v>
-      </c>
-      <c r="G95">
-        <v>0</v>
+      <c r="D95" t="s">
+        <v>406</v>
+      </c>
+      <c r="E95" t="s">
+        <v>455</v>
+      </c>
+      <c r="F95" t="s">
+        <v>320</v>
+      </c>
+      <c r="G95" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -3532,17 +4738,17 @@
       <c r="C96" t="s">
         <v>258</v>
       </c>
-      <c r="D96">
-        <v>24158.39999999999</v>
-      </c>
-      <c r="E96">
-        <v>8300</v>
-      </c>
-      <c r="F96">
-        <v>0</v>
-      </c>
-      <c r="G96">
-        <v>0</v>
+      <c r="D96" t="s">
+        <v>408</v>
+      </c>
+      <c r="E96" t="s">
+        <v>455</v>
+      </c>
+      <c r="F96" t="s">
+        <v>320</v>
+      </c>
+      <c r="G96" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -3555,17 +4761,17 @@
       <c r="C97" t="s">
         <v>259</v>
       </c>
-      <c r="D97">
-        <v>4098</v>
-      </c>
-      <c r="E97">
-        <v>20540</v>
-      </c>
-      <c r="F97">
-        <v>1848735</v>
-      </c>
-      <c r="G97">
-        <v>2113.637143151132</v>
+      <c r="D97" t="s">
+        <v>409</v>
+      </c>
+      <c r="E97" t="s">
+        <v>524</v>
+      </c>
+      <c r="F97" t="s">
+        <v>609</v>
+      </c>
+      <c r="G97" t="s">
+        <v>691</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -3578,17 +4784,17 @@
       <c r="C98" t="s">
         <v>260</v>
       </c>
-      <c r="D98">
-        <v>4042</v>
-      </c>
-      <c r="E98">
-        <v>19017.4</v>
-      </c>
-      <c r="F98">
-        <v>1960727</v>
-      </c>
-      <c r="G98">
-        <v>2241.67628934341</v>
+      <c r="D98" t="s">
+        <v>410</v>
+      </c>
+      <c r="E98" t="s">
+        <v>525</v>
+      </c>
+      <c r="F98" t="s">
+        <v>610</v>
+      </c>
+      <c r="G98" t="s">
+        <v>692</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -3601,17 +4807,17 @@
       <c r="C99" t="s">
         <v>261</v>
       </c>
-      <c r="D99">
-        <v>8096</v>
-      </c>
-      <c r="E99">
-        <v>44640</v>
-      </c>
-      <c r="F99">
-        <v>3193339</v>
-      </c>
-      <c r="G99">
-        <v>3650.907199286588</v>
+      <c r="D99" t="s">
+        <v>411</v>
+      </c>
+      <c r="E99" t="s">
+        <v>526</v>
+      </c>
+      <c r="F99" t="s">
+        <v>611</v>
+      </c>
+      <c r="G99" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -3624,17 +4830,17 @@
       <c r="C100" t="s">
         <v>262</v>
       </c>
-      <c r="D100">
-        <v>8288</v>
-      </c>
-      <c r="E100">
-        <v>44340.00000000001</v>
-      </c>
-      <c r="F100">
-        <v>0</v>
-      </c>
-      <c r="G100">
-        <v>0</v>
+      <c r="D100" t="s">
+        <v>412</v>
+      </c>
+      <c r="E100" t="s">
+        <v>320</v>
+      </c>
+      <c r="F100" t="s">
+        <v>320</v>
+      </c>
+      <c r="G100" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -3647,17 +4853,17 @@
       <c r="C101" t="s">
         <v>263</v>
       </c>
-      <c r="D101">
-        <v>24158.39999999999</v>
-      </c>
-      <c r="E101">
-        <v>8300</v>
-      </c>
-      <c r="F101">
-        <v>0</v>
-      </c>
-      <c r="G101">
-        <v>0</v>
+      <c r="D101" t="s">
+        <v>408</v>
+      </c>
+      <c r="E101" t="s">
+        <v>455</v>
+      </c>
+      <c r="F101" t="s">
+        <v>320</v>
+      </c>
+      <c r="G101" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -3670,17 +4876,17 @@
       <c r="C102" t="s">
         <v>264</v>
       </c>
-      <c r="D102">
-        <v>24158.4</v>
-      </c>
-      <c r="E102">
-        <v>8300</v>
-      </c>
-      <c r="F102">
-        <v>0</v>
-      </c>
-      <c r="G102">
-        <v>0</v>
+      <c r="D102" t="s">
+        <v>413</v>
+      </c>
+      <c r="E102" t="s">
+        <v>455</v>
+      </c>
+      <c r="F102" t="s">
+        <v>320</v>
+      </c>
+      <c r="G102" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -3693,17 +4899,17 @@
       <c r="C103" t="s">
         <v>265</v>
       </c>
-      <c r="D103">
-        <v>23696.95999999998</v>
-      </c>
-      <c r="E103">
-        <v>8300</v>
-      </c>
-      <c r="F103">
-        <v>0</v>
-      </c>
-      <c r="G103">
-        <v>0</v>
+      <c r="D103" t="s">
+        <v>382</v>
+      </c>
+      <c r="E103" t="s">
+        <v>455</v>
+      </c>
+      <c r="F103" t="s">
+        <v>320</v>
+      </c>
+      <c r="G103" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -3716,17 +4922,17 @@
       <c r="C104" t="s">
         <v>266</v>
       </c>
-      <c r="D104">
-        <v>23696.95999999999</v>
-      </c>
-      <c r="E104">
-        <v>8300</v>
-      </c>
-      <c r="F104">
-        <v>0</v>
-      </c>
-      <c r="G104">
-        <v>0</v>
+      <c r="D104" t="s">
+        <v>406</v>
+      </c>
+      <c r="E104" t="s">
+        <v>455</v>
+      </c>
+      <c r="F104" t="s">
+        <v>320</v>
+      </c>
+      <c r="G104" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -3739,17 +4945,17 @@
       <c r="C105" t="s">
         <v>267</v>
       </c>
-      <c r="D105">
-        <v>24158.39999999999</v>
-      </c>
-      <c r="E105">
-        <v>8300</v>
-      </c>
-      <c r="F105">
-        <v>0</v>
-      </c>
-      <c r="G105">
-        <v>0</v>
+      <c r="D105" t="s">
+        <v>408</v>
+      </c>
+      <c r="E105" t="s">
+        <v>455</v>
+      </c>
+      <c r="F105" t="s">
+        <v>320</v>
+      </c>
+      <c r="G105" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -3762,17 +4968,17 @@
       <c r="C106" t="s">
         <v>268</v>
       </c>
-      <c r="D106">
-        <v>1615</v>
-      </c>
-      <c r="E106">
-        <v>5228</v>
-      </c>
-      <c r="F106">
-        <v>811842</v>
-      </c>
-      <c r="G106">
-        <v>928.1694810614289</v>
+      <c r="D106" t="s">
+        <v>414</v>
+      </c>
+      <c r="E106" t="s">
+        <v>527</v>
+      </c>
+      <c r="F106" t="s">
+        <v>612</v>
+      </c>
+      <c r="G106" t="s">
+        <v>694</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -3785,17 +4991,17 @@
       <c r="C107" t="s">
         <v>269</v>
       </c>
-      <c r="D107">
-        <v>12135</v>
-      </c>
-      <c r="E107">
-        <v>58247.99999999999</v>
-      </c>
-      <c r="F107">
-        <v>3979809.831932773</v>
-      </c>
-      <c r="G107">
-        <v>4550.070120082743</v>
+      <c r="D107" t="s">
+        <v>415</v>
+      </c>
+      <c r="E107" t="s">
+        <v>528</v>
+      </c>
+      <c r="F107" t="s">
+        <v>613</v>
+      </c>
+      <c r="G107" t="s">
+        <v>695</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -3808,17 +5014,17 @@
       <c r="C108" t="s">
         <v>270</v>
       </c>
-      <c r="D108">
-        <v>4033</v>
-      </c>
-      <c r="E108">
-        <v>19933.7</v>
-      </c>
-      <c r="F108">
-        <v>1077012</v>
-      </c>
-      <c r="G108">
-        <v>1231.335246435799</v>
+      <c r="D108" t="s">
+        <v>416</v>
+      </c>
+      <c r="E108" t="s">
+        <v>529</v>
+      </c>
+      <c r="F108" t="s">
+        <v>614</v>
+      </c>
+      <c r="G108" t="s">
+        <v>696</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -3831,17 +5037,17 @@
       <c r="C109" t="s">
         <v>271</v>
       </c>
-      <c r="D109">
-        <v>23696.96</v>
-      </c>
-      <c r="E109">
-        <v>8255</v>
-      </c>
-      <c r="F109">
-        <v>0</v>
-      </c>
-      <c r="G109">
-        <v>0</v>
+      <c r="D109" t="s">
+        <v>417</v>
+      </c>
+      <c r="E109" t="s">
+        <v>530</v>
+      </c>
+      <c r="F109" t="s">
+        <v>320</v>
+      </c>
+      <c r="G109" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -3854,17 +5060,17 @@
       <c r="C110" t="s">
         <v>272</v>
       </c>
-      <c r="D110">
-        <v>24158.39999999999</v>
-      </c>
-      <c r="E110">
-        <v>8255</v>
-      </c>
-      <c r="F110">
-        <v>0</v>
-      </c>
-      <c r="G110">
-        <v>0</v>
+      <c r="D110" t="s">
+        <v>408</v>
+      </c>
+      <c r="E110" t="s">
+        <v>530</v>
+      </c>
+      <c r="F110" t="s">
+        <v>320</v>
+      </c>
+      <c r="G110" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -3877,17 +5083,17 @@
       <c r="C111" t="s">
         <v>273</v>
       </c>
-      <c r="D111">
-        <v>23612.39999999999</v>
-      </c>
-      <c r="E111">
-        <v>8255</v>
-      </c>
-      <c r="F111">
-        <v>0</v>
-      </c>
-      <c r="G111">
-        <v>0</v>
+      <c r="D111" t="s">
+        <v>418</v>
+      </c>
+      <c r="E111" t="s">
+        <v>530</v>
+      </c>
+      <c r="F111" t="s">
+        <v>320</v>
+      </c>
+      <c r="G111" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -3900,17 +5106,17 @@
       <c r="C112" t="s">
         <v>274</v>
       </c>
-      <c r="D112">
-        <v>4053</v>
-      </c>
-      <c r="E112">
-        <v>20031.7</v>
-      </c>
-      <c r="F112">
-        <v>1082004</v>
-      </c>
-      <c r="G112">
-        <v>1237.042541758606</v>
+      <c r="D112" t="s">
+        <v>419</v>
+      </c>
+      <c r="E112" t="s">
+        <v>531</v>
+      </c>
+      <c r="F112" t="s">
+        <v>615</v>
+      </c>
+      <c r="G112" t="s">
+        <v>697</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -3923,17 +5129,17 @@
       <c r="C113" t="s">
         <v>275</v>
       </c>
-      <c r="D113">
-        <v>4045</v>
-      </c>
-      <c r="E113">
-        <v>19992.5</v>
-      </c>
-      <c r="F113">
-        <v>867153</v>
-      </c>
-      <c r="G113">
-        <v>991.4059016543382</v>
+      <c r="D113" t="s">
+        <v>420</v>
+      </c>
+      <c r="E113" t="s">
+        <v>532</v>
+      </c>
+      <c r="F113" t="s">
+        <v>616</v>
+      </c>
+      <c r="G113" t="s">
+        <v>698</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -3946,17 +5152,17 @@
       <c r="C114" t="s">
         <v>276</v>
       </c>
-      <c r="D114">
-        <v>4027</v>
-      </c>
-      <c r="E114">
-        <v>19904.3</v>
-      </c>
-      <c r="F114">
-        <v>1075515</v>
-      </c>
-      <c r="G114">
-        <v>1229.623743811952</v>
+      <c r="D114" t="s">
+        <v>421</v>
+      </c>
+      <c r="E114" t="s">
+        <v>533</v>
+      </c>
+      <c r="F114" t="s">
+        <v>617</v>
+      </c>
+      <c r="G114" t="s">
+        <v>699</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -3969,17 +5175,17 @@
       <c r="C115" t="s">
         <v>277</v>
       </c>
-      <c r="D115">
-        <v>2412</v>
-      </c>
-      <c r="E115">
-        <v>11577.6</v>
-      </c>
-      <c r="F115">
-        <v>915488.5210084034</v>
-      </c>
-      <c r="G115">
-        <v>1046.667338548714</v>
+      <c r="D115" t="s">
+        <v>422</v>
+      </c>
+      <c r="E115" t="s">
+        <v>534</v>
+      </c>
+      <c r="F115" t="s">
+        <v>618</v>
+      </c>
+      <c r="G115" t="s">
+        <v>700</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -3992,17 +5198,17 @@
       <c r="C116" t="s">
         <v>278</v>
       </c>
-      <c r="D116">
-        <v>803</v>
-      </c>
-      <c r="E116">
-        <v>4115</v>
-      </c>
-      <c r="F116">
-        <v>230479</v>
-      </c>
-      <c r="G116">
-        <v>263.5039500611659</v>
+      <c r="D116" t="s">
+        <v>423</v>
+      </c>
+      <c r="E116" t="s">
+        <v>535</v>
+      </c>
+      <c r="F116" t="s">
+        <v>619</v>
+      </c>
+      <c r="G116" t="s">
+        <v>701</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -4015,17 +5221,17 @@
       <c r="C117" t="s">
         <v>279</v>
       </c>
-      <c r="D117">
-        <v>1619</v>
-      </c>
-      <c r="E117">
-        <v>8510.799999999999</v>
-      </c>
-      <c r="F117">
-        <v>476401</v>
-      </c>
-      <c r="G117">
-        <v>544.6637017389415</v>
+      <c r="D117" t="s">
+        <v>424</v>
+      </c>
+      <c r="E117" t="s">
+        <v>536</v>
+      </c>
+      <c r="F117" t="s">
+        <v>620</v>
+      </c>
+      <c r="G117" t="s">
+        <v>702</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -4038,17 +5244,17 @@
       <c r="C118" t="s">
         <v>280</v>
       </c>
-      <c r="D118">
-        <v>2436</v>
-      </c>
-      <c r="E118">
-        <v>12759.2</v>
-      </c>
-      <c r="F118">
-        <v>555730</v>
-      </c>
-      <c r="G118">
-        <v>635.3596213429065</v>
+      <c r="D118" t="s">
+        <v>425</v>
+      </c>
+      <c r="E118" t="s">
+        <v>537</v>
+      </c>
+      <c r="F118" t="s">
+        <v>621</v>
+      </c>
+      <c r="G118" t="s">
+        <v>703</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -4061,17 +5267,17 @@
       <c r="C119" t="s">
         <v>281</v>
       </c>
-      <c r="D119">
-        <v>23748.9</v>
-      </c>
-      <c r="E119">
-        <v>8255</v>
-      </c>
-      <c r="F119">
-        <v>0</v>
-      </c>
-      <c r="G119">
-        <v>0</v>
+      <c r="D119" t="s">
+        <v>426</v>
+      </c>
+      <c r="E119" t="s">
+        <v>530</v>
+      </c>
+      <c r="F119" t="s">
+        <v>320</v>
+      </c>
+      <c r="G119" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -4084,17 +5290,17 @@
       <c r="C120" t="s">
         <v>282</v>
       </c>
-      <c r="D120">
-        <v>4029</v>
-      </c>
-      <c r="E120">
-        <v>21000.08</v>
-      </c>
-      <c r="F120">
-        <v>1164377</v>
-      </c>
-      <c r="G120">
-        <v>1331.218631026559</v>
+      <c r="D120" t="s">
+        <v>339</v>
+      </c>
+      <c r="E120" t="s">
+        <v>538</v>
+      </c>
+      <c r="F120" t="s">
+        <v>622</v>
+      </c>
+      <c r="G120" t="s">
+        <v>704</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -4107,17 +5313,17 @@
       <c r="C121" t="s">
         <v>283</v>
       </c>
-      <c r="D121">
-        <v>24158.39999999999</v>
-      </c>
-      <c r="E121">
-        <v>8100</v>
-      </c>
-      <c r="F121">
-        <v>0</v>
-      </c>
-      <c r="G121">
-        <v>0</v>
+      <c r="D121" t="s">
+        <v>408</v>
+      </c>
+      <c r="E121" t="s">
+        <v>539</v>
+      </c>
+      <c r="F121" t="s">
+        <v>320</v>
+      </c>
+      <c r="G121" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -4130,17 +5336,17 @@
       <c r="C122" t="s">
         <v>284</v>
       </c>
-      <c r="D122">
-        <v>23696.95999999998</v>
-      </c>
-      <c r="E122">
-        <v>8100</v>
-      </c>
-      <c r="F122">
-        <v>0</v>
-      </c>
-      <c r="G122">
-        <v>0</v>
+      <c r="D122" t="s">
+        <v>382</v>
+      </c>
+      <c r="E122" t="s">
+        <v>539</v>
+      </c>
+      <c r="F122" t="s">
+        <v>320</v>
+      </c>
+      <c r="G122" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -4153,17 +5359,17 @@
       <c r="C123" t="s">
         <v>285</v>
       </c>
-      <c r="D123">
-        <v>24158.4</v>
-      </c>
-      <c r="E123">
-        <v>8100</v>
-      </c>
-      <c r="F123">
-        <v>0</v>
-      </c>
-      <c r="G123">
-        <v>0</v>
+      <c r="D123" t="s">
+        <v>427</v>
+      </c>
+      <c r="E123" t="s">
+        <v>539</v>
+      </c>
+      <c r="F123" t="s">
+        <v>320</v>
+      </c>
+      <c r="G123" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -4176,17 +5382,17 @@
       <c r="C124" t="s">
         <v>286</v>
       </c>
-      <c r="D124">
-        <v>24158.39999999999</v>
-      </c>
-      <c r="E124">
-        <v>8100</v>
-      </c>
-      <c r="F124">
-        <v>0</v>
-      </c>
-      <c r="G124">
-        <v>0</v>
+      <c r="D124" t="s">
+        <v>408</v>
+      </c>
+      <c r="E124" t="s">
+        <v>539</v>
+      </c>
+      <c r="F124" t="s">
+        <v>320</v>
+      </c>
+      <c r="G124" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -4199,17 +5405,17 @@
       <c r="C125" t="s">
         <v>287</v>
       </c>
-      <c r="D125">
-        <v>24158.39999999999</v>
-      </c>
-      <c r="E125">
-        <v>8100</v>
-      </c>
-      <c r="F125">
-        <v>0</v>
-      </c>
-      <c r="G125">
-        <v>0</v>
+      <c r="D125" t="s">
+        <v>408</v>
+      </c>
+      <c r="E125" t="s">
+        <v>539</v>
+      </c>
+      <c r="F125" t="s">
+        <v>320</v>
+      </c>
+      <c r="G125" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -4222,17 +5428,17 @@
       <c r="C126" t="s">
         <v>288</v>
       </c>
-      <c r="D126">
-        <v>12134</v>
-      </c>
-      <c r="E126">
-        <v>57756.50000000001</v>
-      </c>
-      <c r="F126">
-        <v>3979492.084033613</v>
-      </c>
-      <c r="G126">
-        <v>4549.70684261906</v>
+      <c r="D126" t="s">
+        <v>428</v>
+      </c>
+      <c r="E126" t="s">
+        <v>540</v>
+      </c>
+      <c r="F126" t="s">
+        <v>623</v>
+      </c>
+      <c r="G126" t="s">
+        <v>705</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -4245,17 +5451,17 @@
       <c r="C127" t="s">
         <v>289</v>
       </c>
-      <c r="D127">
-        <v>8196</v>
-      </c>
-      <c r="E127">
-        <v>38930.99999999999</v>
-      </c>
-      <c r="F127">
-        <v>2361363.202583</v>
-      </c>
-      <c r="G127">
-        <v>2699.718982682612</v>
+      <c r="D127" t="s">
+        <v>429</v>
+      </c>
+      <c r="E127" t="s">
+        <v>541</v>
+      </c>
+      <c r="F127" t="s">
+        <v>624</v>
+      </c>
+      <c r="G127" t="s">
+        <v>706</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -4268,17 +5474,17 @@
       <c r="C128" t="s">
         <v>290</v>
       </c>
-      <c r="D128">
-        <v>2431</v>
-      </c>
-      <c r="E128">
-        <v>11667.25</v>
-      </c>
-      <c r="F128">
-        <v>794601.986185</v>
-      </c>
-      <c r="G128">
-        <v>908.4591745286795</v>
+      <c r="D128" t="s">
+        <v>430</v>
+      </c>
+      <c r="E128" t="s">
+        <v>542</v>
+      </c>
+      <c r="F128" t="s">
+        <v>625</v>
+      </c>
+      <c r="G128" t="s">
+        <v>707</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -4291,17 +5497,17 @@
       <c r="C129" t="s">
         <v>291</v>
       </c>
-      <c r="D129">
-        <v>4858</v>
-      </c>
-      <c r="E129">
-        <v>23195.5</v>
-      </c>
-      <c r="F129">
-        <v>1454200.058045</v>
-      </c>
-      <c r="G129">
-        <v>1662.569949861091</v>
+      <c r="D129" t="s">
+        <v>431</v>
+      </c>
+      <c r="E129" t="s">
+        <v>543</v>
+      </c>
+      <c r="F129" t="s">
+        <v>626</v>
+      </c>
+      <c r="G129" t="s">
+        <v>708</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -4314,17 +5520,17 @@
       <c r="C130" t="s">
         <v>292</v>
       </c>
-      <c r="D130">
-        <v>8078</v>
-      </c>
-      <c r="E130">
-        <v>38490.50000000001</v>
-      </c>
-      <c r="F130">
-        <v>2701209.680672269</v>
-      </c>
-      <c r="G130">
-        <v>3088.261493674493</v>
+      <c r="D130" t="s">
+        <v>432</v>
+      </c>
+      <c r="E130" t="s">
+        <v>544</v>
+      </c>
+      <c r="F130" t="s">
+        <v>627</v>
+      </c>
+      <c r="G130" t="s">
+        <v>709</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -4337,17 +5543,17 @@
       <c r="C131" t="s">
         <v>293</v>
       </c>
-      <c r="D131">
-        <v>6469</v>
-      </c>
-      <c r="E131">
-        <v>30848</v>
-      </c>
-      <c r="F131">
-        <v>2206318.487394958</v>
-      </c>
-      <c r="G131">
-        <v>2522.458169818283</v>
+      <c r="D131" t="s">
+        <v>433</v>
+      </c>
+      <c r="E131" t="s">
+        <v>545</v>
+      </c>
+      <c r="F131" t="s">
+        <v>628</v>
+      </c>
+      <c r="G131" t="s">
+        <v>710</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -4360,17 +5566,17 @@
       <c r="C132" t="s">
         <v>294</v>
       </c>
-      <c r="D132">
-        <v>24158.39999999999</v>
-      </c>
-      <c r="E132">
-        <v>8255</v>
-      </c>
-      <c r="F132">
-        <v>0</v>
-      </c>
-      <c r="G132">
-        <v>0</v>
+      <c r="D132" t="s">
+        <v>434</v>
+      </c>
+      <c r="E132" t="s">
+        <v>530</v>
+      </c>
+      <c r="F132" t="s">
+        <v>320</v>
+      </c>
+      <c r="G132" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -4383,17 +5589,17 @@
       <c r="C133" t="s">
         <v>295</v>
       </c>
-      <c r="D133">
-        <v>24015.6</v>
-      </c>
-      <c r="E133">
-        <v>8255</v>
-      </c>
-      <c r="F133">
-        <v>0</v>
-      </c>
-      <c r="G133">
-        <v>0</v>
+      <c r="D133" t="s">
+        <v>332</v>
+      </c>
+      <c r="E133" t="s">
+        <v>530</v>
+      </c>
+      <c r="F133" t="s">
+        <v>320</v>
+      </c>
+      <c r="G133" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -4406,17 +5612,17 @@
       <c r="C134" t="s">
         <v>296</v>
       </c>
-      <c r="D134">
-        <v>24158.39999999999</v>
-      </c>
-      <c r="E134">
-        <v>8255</v>
-      </c>
-      <c r="F134">
-        <v>0</v>
-      </c>
-      <c r="G134">
-        <v>0</v>
+      <c r="D134" t="s">
+        <v>408</v>
+      </c>
+      <c r="E134" t="s">
+        <v>530</v>
+      </c>
+      <c r="F134" t="s">
+        <v>320</v>
+      </c>
+      <c r="G134" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -4429,17 +5635,17 @@
       <c r="C135" t="s">
         <v>297</v>
       </c>
-      <c r="D135">
-        <v>2427</v>
-      </c>
-      <c r="E135">
-        <v>9530.299999999999</v>
-      </c>
-      <c r="F135">
-        <v>1192068</v>
-      </c>
-      <c r="G135">
-        <v>1312.864679126422</v>
+      <c r="D135" t="s">
+        <v>435</v>
+      </c>
+      <c r="E135" t="s">
+        <v>546</v>
+      </c>
+      <c r="F135" t="s">
+        <v>629</v>
+      </c>
+      <c r="G135" t="s">
+        <v>711</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -4452,17 +5658,17 @@
       <c r="C136" t="s">
         <v>298</v>
       </c>
-      <c r="D136">
-        <v>1612</v>
-      </c>
-      <c r="E136">
-        <v>6351.8</v>
-      </c>
-      <c r="F136">
-        <v>783807</v>
-      </c>
-      <c r="G136">
-        <v>863.2330752541327</v>
+      <c r="D136" t="s">
+        <v>436</v>
+      </c>
+      <c r="E136" t="s">
+        <v>547</v>
+      </c>
+      <c r="F136" t="s">
+        <v>630</v>
+      </c>
+      <c r="G136" t="s">
+        <v>712</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -4475,17 +5681,17 @@
       <c r="C137" t="s">
         <v>299</v>
       </c>
-      <c r="D137">
-        <v>4039</v>
-      </c>
-      <c r="E137">
-        <v>15817.1</v>
-      </c>
-      <c r="F137">
-        <v>1952501</v>
-      </c>
-      <c r="G137">
-        <v>2150.355180123129</v>
+      <c r="D137" t="s">
+        <v>437</v>
+      </c>
+      <c r="E137" t="s">
+        <v>548</v>
+      </c>
+      <c r="F137" t="s">
+        <v>631</v>
+      </c>
+      <c r="G137" t="s">
+        <v>713</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -4498,17 +5704,17 @@
       <c r="C138" t="s">
         <v>300</v>
       </c>
-      <c r="D138">
-        <v>4026</v>
-      </c>
-      <c r="E138">
-        <v>15766.4</v>
-      </c>
-      <c r="F138">
-        <v>1946369</v>
-      </c>
-      <c r="G138">
-        <v>2143.601801781958</v>
+      <c r="D138" t="s">
+        <v>438</v>
+      </c>
+      <c r="E138" t="s">
+        <v>549</v>
+      </c>
+      <c r="F138" t="s">
+        <v>632</v>
+      </c>
+      <c r="G138" t="s">
+        <v>714</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -4521,17 +5727,17 @@
       <c r="C139" t="s">
         <v>301</v>
       </c>
-      <c r="D139">
-        <v>4040</v>
-      </c>
-      <c r="E139">
-        <v>15821</v>
-      </c>
-      <c r="F139">
-        <v>1952972</v>
-      </c>
-      <c r="G139">
-        <v>2150.873908302955</v>
+      <c r="D139" t="s">
+        <v>370</v>
+      </c>
+      <c r="E139" t="s">
+        <v>550</v>
+      </c>
+      <c r="F139" t="s">
+        <v>633</v>
+      </c>
+      <c r="G139" t="s">
+        <v>715</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -4544,17 +5750,17 @@
       <c r="C140" t="s">
         <v>302</v>
       </c>
-      <c r="D140">
-        <v>4828</v>
-      </c>
-      <c r="E140">
-        <v>19914.8</v>
-      </c>
-      <c r="F140">
-        <v>1670354.319327731</v>
-      </c>
-      <c r="G140">
-        <v>1909.69659337548</v>
+      <c r="D140" t="s">
+        <v>439</v>
+      </c>
+      <c r="E140" t="s">
+        <v>551</v>
+      </c>
+      <c r="F140" t="s">
+        <v>634</v>
+      </c>
+      <c r="G140" t="s">
+        <v>716</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -4567,17 +5773,17 @@
       <c r="C141" t="s">
         <v>303</v>
       </c>
-      <c r="D141">
-        <v>3887</v>
-      </c>
-      <c r="E141">
-        <v>16056.7</v>
-      </c>
-      <c r="F141">
-        <v>1375071.428571429</v>
-      </c>
-      <c r="G141">
-        <v>1572.103111540843</v>
+      <c r="D141" t="s">
+        <v>440</v>
+      </c>
+      <c r="E141" t="s">
+        <v>552</v>
+      </c>
+      <c r="F141" t="s">
+        <v>635</v>
+      </c>
+      <c r="G141" t="s">
+        <v>717</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -4590,17 +5796,17 @@
       <c r="C142" t="s">
         <v>304</v>
       </c>
-      <c r="D142">
-        <v>23696.95999999998</v>
-      </c>
-      <c r="E142">
-        <v>8255</v>
-      </c>
-      <c r="F142">
-        <v>0</v>
-      </c>
-      <c r="G142">
-        <v>0</v>
+      <c r="D142" t="s">
+        <v>382</v>
+      </c>
+      <c r="E142" t="s">
+        <v>530</v>
+      </c>
+      <c r="F142" t="s">
+        <v>320</v>
+      </c>
+      <c r="G142" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -4613,17 +5819,17 @@
       <c r="C143" t="s">
         <v>305</v>
       </c>
-      <c r="D143">
-        <v>23696.96</v>
-      </c>
-      <c r="E143">
-        <v>8255</v>
-      </c>
-      <c r="F143">
-        <v>0</v>
-      </c>
-      <c r="G143">
-        <v>0</v>
+      <c r="D143" t="s">
+        <v>417</v>
+      </c>
+      <c r="E143" t="s">
+        <v>530</v>
+      </c>
+      <c r="F143" t="s">
+        <v>320</v>
+      </c>
+      <c r="G143" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -4636,17 +5842,17 @@
       <c r="C144" t="s">
         <v>306</v>
       </c>
-      <c r="D144">
-        <v>24158.4</v>
-      </c>
-      <c r="E144">
-        <v>8255</v>
-      </c>
-      <c r="F144">
-        <v>0</v>
-      </c>
-      <c r="G144">
-        <v>0</v>
+      <c r="D144" t="s">
+        <v>427</v>
+      </c>
+      <c r="E144" t="s">
+        <v>530</v>
+      </c>
+      <c r="F144" t="s">
+        <v>320</v>
+      </c>
+      <c r="G144" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -4659,17 +5865,17 @@
       <c r="C145" t="s">
         <v>307</v>
       </c>
-      <c r="D145">
-        <v>24158.4</v>
-      </c>
-      <c r="E145">
-        <v>8255</v>
-      </c>
-      <c r="F145">
-        <v>0</v>
-      </c>
-      <c r="G145">
-        <v>0</v>
+      <c r="D145" t="s">
+        <v>427</v>
+      </c>
+      <c r="E145" t="s">
+        <v>530</v>
+      </c>
+      <c r="F145" t="s">
+        <v>320</v>
+      </c>
+      <c r="G145" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -4682,17 +5888,17 @@
       <c r="C146" t="s">
         <v>308</v>
       </c>
-      <c r="D146">
-        <v>23612.39999999999</v>
-      </c>
-      <c r="E146">
-        <v>8100</v>
-      </c>
-      <c r="F146">
-        <v>0</v>
-      </c>
-      <c r="G146">
-        <v>0</v>
+      <c r="D146" t="s">
+        <v>441</v>
+      </c>
+      <c r="E146" t="s">
+        <v>539</v>
+      </c>
+      <c r="F146" t="s">
+        <v>320</v>
+      </c>
+      <c r="G146" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -4705,17 +5911,17 @@
       <c r="C147" t="s">
         <v>309</v>
       </c>
-      <c r="D147">
-        <v>24158.4</v>
-      </c>
-      <c r="E147">
-        <v>8100</v>
-      </c>
-      <c r="F147">
-        <v>0</v>
-      </c>
-      <c r="G147">
-        <v>0</v>
+      <c r="D147" t="s">
+        <v>427</v>
+      </c>
+      <c r="E147" t="s">
+        <v>539</v>
+      </c>
+      <c r="F147" t="s">
+        <v>320</v>
+      </c>
+      <c r="G147" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -4728,17 +5934,17 @@
       <c r="C148" t="s">
         <v>310</v>
       </c>
-      <c r="D148">
-        <v>23696.96</v>
-      </c>
-      <c r="E148">
-        <v>8100</v>
-      </c>
-      <c r="F148">
-        <v>0</v>
-      </c>
-      <c r="G148">
-        <v>0</v>
+      <c r="D148" t="s">
+        <v>417</v>
+      </c>
+      <c r="E148" t="s">
+        <v>539</v>
+      </c>
+      <c r="F148" t="s">
+        <v>320</v>
+      </c>
+      <c r="G148" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -4751,17 +5957,17 @@
       <c r="C149" t="s">
         <v>311</v>
       </c>
-      <c r="D149">
-        <v>24158.39999999999</v>
-      </c>
-      <c r="E149">
-        <v>8100</v>
-      </c>
-      <c r="F149">
-        <v>0</v>
-      </c>
-      <c r="G149">
-        <v>0</v>
+      <c r="D149" t="s">
+        <v>434</v>
+      </c>
+      <c r="E149" t="s">
+        <v>539</v>
+      </c>
+      <c r="F149" t="s">
+        <v>320</v>
+      </c>
+      <c r="G149" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -4774,17 +5980,17 @@
       <c r="C150" t="s">
         <v>312</v>
       </c>
-      <c r="D150">
-        <v>24158.4</v>
-      </c>
-      <c r="E150">
-        <v>8100</v>
-      </c>
-      <c r="F150">
-        <v>0</v>
-      </c>
-      <c r="G150">
-        <v>0</v>
+      <c r="D150" t="s">
+        <v>427</v>
+      </c>
+      <c r="E150" t="s">
+        <v>539</v>
+      </c>
+      <c r="F150" t="s">
+        <v>320</v>
+      </c>
+      <c r="G150" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -4797,17 +6003,17 @@
       <c r="C151" t="s">
         <v>313</v>
       </c>
-      <c r="D151">
-        <v>1623</v>
-      </c>
-      <c r="E151">
-        <v>6569.1</v>
-      </c>
-      <c r="F151">
-        <v>576992.359034</v>
-      </c>
-      <c r="G151">
-        <v>635.4611383759733</v>
+      <c r="D151" t="s">
+        <v>442</v>
+      </c>
+      <c r="E151" t="s">
+        <v>553</v>
+      </c>
+      <c r="F151" t="s">
+        <v>636</v>
+      </c>
+      <c r="G151" t="s">
+        <v>718</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -4820,17 +6026,17 @@
       <c r="C152" t="s">
         <v>314</v>
       </c>
-      <c r="D152">
-        <v>1622</v>
-      </c>
-      <c r="E152">
-        <v>6573</v>
-      </c>
-      <c r="F152">
-        <v>636800.256183</v>
-      </c>
-      <c r="G152">
-        <v>701.3295919371359</v>
+      <c r="D152" t="s">
+        <v>443</v>
+      </c>
+      <c r="E152" t="s">
+        <v>554</v>
+      </c>
+      <c r="F152" t="s">
+        <v>637</v>
+      </c>
+      <c r="G152" t="s">
+        <v>719</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -4843,17 +6049,17 @@
       <c r="C153" t="s">
         <v>315</v>
       </c>
-      <c r="D153">
-        <v>24158.4</v>
-      </c>
-      <c r="E153">
-        <v>8300</v>
-      </c>
-      <c r="F153">
-        <v>0</v>
-      </c>
-      <c r="G153">
-        <v>0</v>
+      <c r="D153" t="s">
+        <v>427</v>
+      </c>
+      <c r="E153" t="s">
+        <v>455</v>
+      </c>
+      <c r="F153" t="s">
+        <v>320</v>
+      </c>
+      <c r="G153" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -4866,17 +6072,17 @@
       <c r="C154" t="s">
         <v>316</v>
       </c>
-      <c r="D154">
-        <v>21241.28599999999</v>
-      </c>
-      <c r="E154">
-        <v>8300</v>
-      </c>
-      <c r="F154">
-        <v>0</v>
-      </c>
-      <c r="G154">
-        <v>0</v>
+      <c r="D154" t="s">
+        <v>444</v>
+      </c>
+      <c r="E154" t="s">
+        <v>455</v>
+      </c>
+      <c r="F154" t="s">
+        <v>320</v>
+      </c>
+      <c r="G154" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -4889,17 +6095,17 @@
       <c r="C155" t="s">
         <v>317</v>
       </c>
-      <c r="D155">
-        <v>804</v>
-      </c>
-      <c r="E155">
-        <v>3752.599999999999</v>
-      </c>
-      <c r="F155">
-        <v>514935</v>
-      </c>
-      <c r="G155">
-        <v>567.1152765999625</v>
+      <c r="D155" t="s">
+        <v>445</v>
+      </c>
+      <c r="E155" t="s">
+        <v>555</v>
+      </c>
+      <c r="F155" t="s">
+        <v>638</v>
+      </c>
+      <c r="G155" t="s">
+        <v>720</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -4912,17 +6118,17 @@
       <c r="C156" t="s">
         <v>318</v>
       </c>
-      <c r="D156">
-        <v>809</v>
-      </c>
-      <c r="E156">
-        <v>3316.9</v>
-      </c>
-      <c r="F156">
-        <v>357898.926476</v>
-      </c>
-      <c r="G156">
-        <v>394.1661543365015</v>
+      <c r="D156" t="s">
+        <v>446</v>
+      </c>
+      <c r="E156" t="s">
+        <v>556</v>
+      </c>
+      <c r="F156" t="s">
+        <v>639</v>
+      </c>
+      <c r="G156" t="s">
+        <v>721</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -4935,17 +6141,17 @@
       <c r="C157" t="s">
         <v>319</v>
       </c>
-      <c r="D157">
-        <v>3752</v>
-      </c>
-      <c r="E157">
-        <v>16793.36</v>
-      </c>
-      <c r="F157">
-        <v>0</v>
-      </c>
-      <c r="G157">
-        <v>0</v>
+      <c r="D157" t="s">
+        <v>447</v>
+      </c>
+      <c r="E157" t="s">
+        <v>557</v>
+      </c>
+      <c r="F157" t="s">
+        <v>320</v>
+      </c>
+      <c r="G157" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -4955,20 +6161,20 @@
       <c r="B158" t="s">
         <v>164</v>
       </c>
-      <c r="C158">
-        <v>0</v>
-      </c>
-      <c r="D158">
-        <v>0</v>
-      </c>
-      <c r="E158">
-        <v>0</v>
-      </c>
-      <c r="F158">
-        <v>0</v>
-      </c>
-      <c r="G158">
-        <v>0</v>
+      <c r="C158" t="s">
+        <v>320</v>
+      </c>
+      <c r="D158" t="s">
+        <v>320</v>
+      </c>
+      <c r="E158" t="s">
+        <v>320</v>
+      </c>
+      <c r="F158" t="s">
+        <v>320</v>
+      </c>
+      <c r="G158" t="s">
+        <v>320</v>
       </c>
     </row>
   </sheetData>
